--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2008665.112318072</v>
+        <v>-2009478.55952996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2927877.345954293</v>
+        <v>2927877.345954291</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.1059717842871</v>
       </c>
       <c r="C11" t="n">
-        <v>289.1172887419689</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>280.0985927864969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>175.6994461347303</v>
       </c>
       <c r="F11" t="n">
-        <v>300.1462572693767</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4070376922379</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>234.9781829577618</v>
       </c>
       <c r="I11" t="n">
-        <v>61.32070768241313</v>
+        <v>61.32070768241304</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.0821803754517</v>
+        <v>84.08218037545161</v>
       </c>
       <c r="T11" t="n">
-        <v>130.7597296842795</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>163.296248452629</v>
+        <v>163.2962484526289</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>289.2127067351698</v>
       </c>
       <c r="Y11" t="n">
-        <v>300.6093045313686</v>
+        <v>300.6093045313685</v>
       </c>
     </row>
     <row r="12">
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945685</v>
       </c>
       <c r="S12" t="n">
         <v>145.9169861849574</v>
       </c>
       <c r="T12" t="n">
-        <v>185.6363186866066</v>
+        <v>185.6363186866071</v>
       </c>
       <c r="U12" t="n">
         <v>216.2908792854683</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.72268265898428</v>
+        <v>92.7226826589842</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>78.92267750438468</v>
       </c>
       <c r="D13" t="n">
-        <v>62.54404190196315</v>
+        <v>25.38745371823693</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>61.95871608592891</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>77.99174215033081</v>
+        <v>77.99174215033072</v>
       </c>
       <c r="H13" t="n">
-        <v>66.63306124366595</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.162769912717</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.363767619385</v>
+        <v>118.3637676193849</v>
       </c>
       <c r="T13" t="n">
-        <v>140.8174128706117</v>
+        <v>140.8174128706116</v>
       </c>
       <c r="U13" t="n">
         <v>195.3080224141332</v>
       </c>
       <c r="V13" t="n">
-        <v>169.1308190586099</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W13" t="n">
         <v>194.2977051292231</v>
       </c>
       <c r="X13" t="n">
-        <v>4.954349203371763</v>
+        <v>139.9428071250261</v>
       </c>
       <c r="Y13" t="n">
         <v>130.8176748810939</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>268.3464175601672</v>
       </c>
       <c r="C14" t="n">
-        <v>289.1172887419688</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D14" t="n">
-        <v>280.0985927864968</v>
+        <v>280.0985927864969</v>
       </c>
       <c r="E14" t="n">
-        <v>301.8407303564023</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0125464443795</v>
+        <v>321.0125464443796</v>
       </c>
       <c r="G14" t="n">
-        <v>320.462993613682</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H14" t="n">
-        <v>234.9781829577617</v>
+        <v>234.9781829577618</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.32070768241307</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>84.08218037545164</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U14" t="n">
-        <v>163.2962484526289</v>
+        <v>163.296248452629</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6123490244662</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S15" t="n">
         <v>145.9169861849574</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.72268265898417</v>
+        <v>92.72268265898423</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>78.92267750438471</v>
       </c>
       <c r="D16" t="n">
-        <v>62.54404190196304</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>59.1090879977903</v>
       </c>
       <c r="F16" t="n">
-        <v>61.9587160859288</v>
+        <v>61.95871608592886</v>
       </c>
       <c r="G16" t="n">
-        <v>77.99174215033069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.63306124366584</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I16" t="n">
-        <v>46.4960054222765</v>
+        <v>46.49600542227655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16276991271688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.3637676193849</v>
+        <v>118.363767619385</v>
       </c>
       <c r="T16" t="n">
         <v>140.8174128706116</v>
       </c>
       <c r="U16" t="n">
-        <v>13.82355907020482</v>
+        <v>195.3080224141332</v>
       </c>
       <c r="V16" t="n">
-        <v>169.1308190586097</v>
+        <v>169.1308190586098</v>
       </c>
       <c r="W16" t="n">
-        <v>194.297705129223</v>
+        <v>194.2977051292231</v>
       </c>
       <c r="X16" t="n">
-        <v>139.9428071250261</v>
+        <v>139.9428071250262</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.8176748810938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.152388864011073</v>
+        <v>7.152388864011044</v>
       </c>
       <c r="T17" t="n">
-        <v>53.82993817283892</v>
+        <v>53.82993817283889</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36645694118837</v>
+        <v>86.36645694118835</v>
       </c>
       <c r="V17" t="n">
         <v>167.6825575130257</v>
@@ -1935,7 +1935,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1529440554391</v>
+        <v>127.1529440554385</v>
       </c>
       <c r="H18" t="n">
         <v>96.15438866313485</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S18" t="n">
         <v>145.9169861849574</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79289114754366</v>
+        <v>15.79289114754363</v>
       </c>
       <c r="C19" t="n">
-        <v>1.992885992944139</v>
+        <v>1.99288599294411</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.061950638890176</v>
+        <v>1.061950638890147</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.80205049538924</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S19" t="n">
-        <v>41.43397610794441</v>
+        <v>41.43397610794437</v>
       </c>
       <c r="T19" t="n">
-        <v>219.8495741058286</v>
+        <v>63.88762135917106</v>
       </c>
       <c r="U19" t="n">
         <v>118.3782309026926</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20102754716925</v>
+        <v>92.20102754716922</v>
       </c>
       <c r="W19" t="n">
         <v>117.3679136177825</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01301561358562</v>
+        <v>63.01301561358559</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.88788336965331</v>
+        <v>53.88788336965328</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>96.15438866313485</v>
       </c>
       <c r="I21" t="n">
-        <v>57.7733452031032</v>
+        <v>57.77334520310382</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>41.28834215945722</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S21" t="n">
         <v>145.9169861849574</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.79899546972059</v>
+        <v>15.79289114754366</v>
       </c>
       <c r="C22" t="n">
         <v>1.992885992944139</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1.061950638890176</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>20.46881498582922</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.4931377608283</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.43397610794441</v>
+        <v>41.4339761079444</v>
       </c>
       <c r="T22" t="n">
         <v>63.88762135917109</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945722</v>
       </c>
       <c r="S24" t="n">
         <v>145.9169861849574</v>
@@ -2476,7 +2476,7 @@
         <v>15.79289114754366</v>
       </c>
       <c r="C25" t="n">
-        <v>1.992885992944139</v>
+        <v>115.5847121857111</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>42.37012655389059</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>60.23602660333326</v>
+        <v>41.4339761079444</v>
       </c>
       <c r="T25" t="n">
         <v>63.88762135917109</v>
@@ -2573,7 +2573,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I26" t="n">
-        <v>47.81868876500857</v>
+        <v>47.81868876500859</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58016145804714</v>
+        <v>70.58016145804716</v>
       </c>
       <c r="T26" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U26" t="n">
-        <v>149.7942295352244</v>
+        <v>149.7942295352245</v>
       </c>
       <c r="V26" t="n">
         <v>231.1103301070618</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S27" t="n">
         <v>145.9169861849574</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.22066374157973</v>
+        <v>79.22066374157974</v>
       </c>
       <c r="C28" t="n">
-        <v>65.42065858698021</v>
+        <v>65.42065858698022</v>
       </c>
       <c r="D28" t="n">
-        <v>49.0420229845586</v>
+        <v>49.04202298455861</v>
       </c>
       <c r="E28" t="n">
-        <v>47.98977284033805</v>
+        <v>47.98977284033806</v>
       </c>
       <c r="F28" t="n">
-        <v>48.45669716852436</v>
+        <v>48.45669716852437</v>
       </c>
       <c r="G28" t="n">
-        <v>64.48972323292625</v>
+        <v>64.48972323292627</v>
       </c>
       <c r="H28" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626138</v>
       </c>
       <c r="I28" t="n">
-        <v>32.99398650487205</v>
+        <v>32.99398650487207</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66075099531244</v>
+        <v>34.66075099531245</v>
       </c>
       <c r="S28" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T28" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U28" t="n">
         <v>181.8060034967287</v>
@@ -2810,7 +2810,7 @@
         <v>221.4761640403573</v>
       </c>
       <c r="I29" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500856</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804713</v>
       </c>
       <c r="T29" t="n">
         <v>117.257710766875</v>
       </c>
       <c r="U29" t="n">
-        <v>149.7942295352245</v>
+        <v>149.7942295352244</v>
       </c>
       <c r="V29" t="n">
         <v>231.1103301070618</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S30" t="n">
         <v>145.9169861849574</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157971</v>
       </c>
       <c r="C31" t="n">
-        <v>65.42065858698022</v>
+        <v>65.4206585869802</v>
       </c>
       <c r="D31" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455859</v>
       </c>
       <c r="E31" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033803</v>
       </c>
       <c r="F31" t="n">
-        <v>48.45669716852437</v>
+        <v>48.45669716852434</v>
       </c>
       <c r="G31" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292624</v>
       </c>
       <c r="H31" t="n">
-        <v>53.13104232626141</v>
+        <v>53.13104232626135</v>
       </c>
       <c r="I31" t="n">
-        <v>32.99398650487207</v>
+        <v>32.99398650487204</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66075099531245</v>
+        <v>34.66075099531243</v>
       </c>
       <c r="S31" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T31" t="n">
-        <v>127.3153939532072</v>
+        <v>127.3153939532071</v>
       </c>
       <c r="U31" t="n">
         <v>181.8060034967287</v>
@@ -3029,25 +3029,25 @@
         <v>287.6039528668827</v>
       </c>
       <c r="C32" t="n">
-        <v>275.6152698245644</v>
+        <v>275.6152698245645</v>
       </c>
       <c r="D32" t="n">
         <v>266.5965738690924</v>
       </c>
       <c r="E32" t="n">
-        <v>288.3387114389979</v>
+        <v>288.338711438998</v>
       </c>
       <c r="F32" t="n">
         <v>307.5105275269751</v>
       </c>
       <c r="G32" t="n">
-        <v>308.9050187748333</v>
+        <v>308.9050187748334</v>
       </c>
       <c r="H32" t="n">
         <v>221.4761640403573</v>
       </c>
       <c r="I32" t="n">
-        <v>47.81868876500859</v>
+        <v>47.81868876500862</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.58016145804716</v>
+        <v>70.58016145804719</v>
       </c>
       <c r="T32" t="n">
         <v>117.257710766875</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S33" t="n">
         <v>145.9169861849574</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.22066374157974</v>
+        <v>79.22066374157977</v>
       </c>
       <c r="C34" t="n">
-        <v>65.42065858698022</v>
+        <v>65.42065858698025</v>
       </c>
       <c r="D34" t="n">
-        <v>49.04202298455861</v>
+        <v>49.04202298455864</v>
       </c>
       <c r="E34" t="n">
-        <v>47.98977284033806</v>
+        <v>47.98977284033809</v>
       </c>
       <c r="F34" t="n">
-        <v>48.45669716852437</v>
+        <v>48.4566971685244</v>
       </c>
       <c r="G34" t="n">
-        <v>64.48972323292627</v>
+        <v>64.48972323292629</v>
       </c>
       <c r="H34" t="n">
-        <v>53.13104232626139</v>
+        <v>53.13104232626142</v>
       </c>
       <c r="I34" t="n">
-        <v>32.99398650487206</v>
+        <v>32.99398650487208</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66075099531247</v>
+        <v>34.66075099531249</v>
       </c>
       <c r="S34" t="n">
         <v>104.8617487019805</v>
       </c>
       <c r="T34" t="n">
-        <v>127.3153939532071</v>
+        <v>127.3153939532072</v>
       </c>
       <c r="U34" t="n">
         <v>181.8060034967287</v>
       </c>
       <c r="V34" t="n">
-        <v>155.6288001412053</v>
+        <v>155.6288001412054</v>
       </c>
       <c r="W34" t="n">
         <v>180.7956862118186</v>
@@ -3266,22 +3266,22 @@
         <v>237.5163481499652</v>
       </c>
       <c r="C35" t="n">
-        <v>225.5276651076469</v>
+        <v>225.527665107647</v>
       </c>
       <c r="D35" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E35" t="n">
-        <v>238.2511067220804</v>
+        <v>238.2511067220805</v>
       </c>
       <c r="F35" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G35" t="n">
-        <v>258.8174140579158</v>
+        <v>258.8174140579159</v>
       </c>
       <c r="H35" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.49255674112965</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T35" t="n">
-        <v>67.1701060499575</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U35" t="n">
-        <v>99.70662481830695</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V35" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W35" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X35" t="n">
-        <v>225.6230831008478</v>
+        <v>225.6230831008479</v>
       </c>
       <c r="Y35" t="n">
         <v>237.0196808970466</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S36" t="n">
         <v>145.9169861849574</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.13305902466223</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C37" t="n">
-        <v>15.33305387006271</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.40211851600875</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H37" t="n">
-        <v>3.043437609343884</v>
+        <v>3.043437609343968</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.77414398506298</v>
+        <v>54.77414398506306</v>
       </c>
       <c r="T37" t="n">
-        <v>77.22778923628965</v>
+        <v>96.74462560241685</v>
       </c>
       <c r="U37" t="n">
-        <v>151.2352351459393</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V37" t="n">
-        <v>105.5411954242878</v>
+        <v>105.5411954242879</v>
       </c>
       <c r="W37" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X37" t="n">
-        <v>76.3531834907042</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.22805124677188</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="38">
@@ -3506,19 +3506,19 @@
         <v>225.527665107647</v>
       </c>
       <c r="D38" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E38" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F38" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G38" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H38" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T38" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U38" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V38" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W38" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X38" t="n">
         <v>225.6230831008479</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S39" t="n">
         <v>145.9169861849574</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.13305902466229</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C40" t="n">
-        <v>15.33305387006277</v>
+        <v>34.8498902361899</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.40211851600881</v>
+        <v>14.40211851600884</v>
       </c>
       <c r="H40" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343968</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.91484350440138</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506306</v>
       </c>
       <c r="T40" t="n">
-        <v>78.82978209801571</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U40" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V40" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W40" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X40" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.5163481499651</v>
+        <v>237.5163481499652</v>
       </c>
       <c r="C41" t="n">
         <v>225.5276651076469</v>
       </c>
       <c r="D41" t="n">
-        <v>216.5089691521748</v>
+        <v>216.5089691521749</v>
       </c>
       <c r="E41" t="n">
         <v>238.2511067220804</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.49255674112963</v>
+        <v>20.49255674112965</v>
       </c>
       <c r="T41" t="n">
-        <v>67.17010604995747</v>
+        <v>67.1701060499575</v>
       </c>
       <c r="U41" t="n">
-        <v>99.70662481830692</v>
+        <v>99.70662481830695</v>
       </c>
       <c r="V41" t="n">
-        <v>181.0227253901442</v>
+        <v>181.0227253901443</v>
       </c>
       <c r="W41" t="n">
         <v>206.3228248681012</v>
@@ -3806,7 +3806,7 @@
         <v>225.6230831008478</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.0196808970465</v>
+        <v>237.0196808970466</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S42" t="n">
         <v>145.9169861849574</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.1330590246622</v>
+        <v>29.13305902466223</v>
       </c>
       <c r="C43" t="n">
-        <v>15.33305387006268</v>
+        <v>15.33305387006271</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.601992861726671</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>14.40211851600872</v>
+        <v>14.40211851600875</v>
       </c>
       <c r="H43" t="n">
-        <v>4.645430471070909</v>
+        <v>3.043437609343883</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.77414398506296</v>
+        <v>54.77414398506298</v>
       </c>
       <c r="T43" t="n">
-        <v>77.22778923628962</v>
+        <v>77.22778923628965</v>
       </c>
       <c r="U43" t="n">
-        <v>131.7183987798111</v>
+        <v>131.7183987798112</v>
       </c>
       <c r="V43" t="n">
         <v>105.5411954242878</v>
@@ -3961,10 +3961,10 @@
         <v>130.7080814949011</v>
       </c>
       <c r="X43" t="n">
-        <v>76.35318349070417</v>
+        <v>76.3531834907042</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.22805124677186</v>
+        <v>67.22805124677188</v>
       </c>
     </row>
     <row r="44">
@@ -3980,19 +3980,19 @@
         <v>225.527665107647</v>
       </c>
       <c r="D44" t="n">
-        <v>216.5089691521749</v>
+        <v>216.508969152175</v>
       </c>
       <c r="E44" t="n">
         <v>238.2511067220805</v>
       </c>
       <c r="F44" t="n">
-        <v>257.4229228100576</v>
+        <v>257.4229228100577</v>
       </c>
       <c r="G44" t="n">
         <v>258.8174140579159</v>
       </c>
       <c r="H44" t="n">
-        <v>171.3885593234398</v>
+        <v>171.3885593234399</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.4925567411297</v>
+        <v>20.49255674112973</v>
       </c>
       <c r="T44" t="n">
-        <v>67.17010604995755</v>
+        <v>67.17010604995758</v>
       </c>
       <c r="U44" t="n">
-        <v>99.70662481830701</v>
+        <v>99.70662481830703</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0227253901443</v>
+        <v>181.0227253901444</v>
       </c>
       <c r="W44" t="n">
-        <v>206.3228248681012</v>
+        <v>206.3228248681013</v>
       </c>
       <c r="X44" t="n">
         <v>225.6230831008479</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>41.28834215945685</v>
+        <v>41.28834215945684</v>
       </c>
       <c r="S45" t="n">
         <v>145.9169861849574</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.64989539078963</v>
+        <v>29.13305902466232</v>
       </c>
       <c r="C46" t="n">
-        <v>15.33305387006277</v>
+        <v>15.3330538700628</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>14.40211851600881</v>
+        <v>33.91895488213594</v>
       </c>
       <c r="H46" t="n">
-        <v>3.043437609343941</v>
+        <v>3.043437609343968</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>54.77414398506304</v>
+        <v>54.77414398506306</v>
       </c>
       <c r="T46" t="n">
-        <v>77.22778923628971</v>
+        <v>77.22778923628974</v>
       </c>
       <c r="U46" t="n">
-        <v>131.7183987798112</v>
+        <v>131.7183987798113</v>
       </c>
       <c r="V46" t="n">
         <v>105.5411954242879</v>
       </c>
       <c r="W46" t="n">
-        <v>130.7080814949011</v>
+        <v>130.7080814949012</v>
       </c>
       <c r="X46" t="n">
-        <v>76.35318349070425</v>
+        <v>76.35318349070428</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.22805124677194</v>
+        <v>67.22805124677197</v>
       </c>
     </row>
   </sheetData>
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1553.728376134646</v>
+        <v>1134.578284089723</v>
       </c>
       <c r="C11" t="n">
-        <v>1261.690710738718</v>
+        <v>1134.578284089723</v>
       </c>
       <c r="D11" t="n">
-        <v>978.7628392372055</v>
+        <v>851.6504125882109</v>
       </c>
       <c r="E11" t="n">
-        <v>978.7628392372055</v>
+        <v>674.1762245733319</v>
       </c>
       <c r="F11" t="n">
-        <v>675.5848015913705</v>
+        <v>349.9211271547666</v>
       </c>
       <c r="G11" t="n">
         <v>349.9211271547666</v>
       </c>
       <c r="H11" t="n">
-        <v>112.5694271974314</v>
+        <v>112.5694271974313</v>
       </c>
       <c r="I11" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J11" t="n">
-        <v>131.281991181161</v>
+        <v>167.8985774144699</v>
       </c>
       <c r="K11" t="n">
-        <v>439.2714293605865</v>
+        <v>475.8880155938954</v>
       </c>
       <c r="L11" t="n">
-        <v>871.3295686103874</v>
+        <v>907.9461548436964</v>
       </c>
       <c r="M11" t="n">
-        <v>1358.227155577602</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N11" t="n">
-        <v>1831.732426143463</v>
+        <v>1679.700173710447</v>
       </c>
       <c r="O11" t="n">
-        <v>2226.607036788429</v>
+        <v>2074.574784355413</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.465921365857</v>
+        <v>2379.433668932841</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.465921365857</v>
@@ -5069,22 +5069,22 @@
         <v>2446.534426037118</v>
       </c>
       <c r="T11" t="n">
-        <v>2314.453891002492</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="U11" t="n">
-        <v>2149.508185494786</v>
+        <v>2281.588720529411</v>
       </c>
       <c r="V11" t="n">
-        <v>2149.508185494786</v>
+        <v>2034.505539696617</v>
       </c>
       <c r="W11" t="n">
-        <v>2149.508185494786</v>
+        <v>2034.505539696617</v>
       </c>
       <c r="X11" t="n">
-        <v>1857.374138287543</v>
+        <v>1742.371492489375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1553.728376134646</v>
+        <v>1438.725730336477</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>841.2082694571444</v>
       </c>
       <c r="M12" t="n">
-        <v>1129.281940533323</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N12" t="n">
         <v>1714.772304204091</v>
@@ -5145,7 +5145,7 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T12" t="n">
         <v>2154.858197092098</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>322.4753400251846</v>
+        <v>234.7726248646431</v>
       </c>
       <c r="C13" t="n">
-        <v>322.4753400251846</v>
+        <v>155.0527485975879</v>
       </c>
       <c r="D13" t="n">
-        <v>259.2995401242117</v>
+        <v>129.4088559529037</v>
       </c>
       <c r="E13" t="n">
-        <v>259.2995401242117</v>
+        <v>129.4088559529037</v>
       </c>
       <c r="F13" t="n">
-        <v>196.7149784212532</v>
+        <v>129.4088559529037</v>
       </c>
       <c r="G13" t="n">
-        <v>117.9354408956666</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="H13" t="n">
         <v>50.62931842731713</v>
@@ -5197,52 +5197,52 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J13" t="n">
-        <v>96.79005415413165</v>
+        <v>96.79005415413175</v>
       </c>
       <c r="K13" t="n">
-        <v>246.2990519958639</v>
+        <v>246.2990519958642</v>
       </c>
       <c r="L13" t="n">
-        <v>470.5847128405358</v>
+        <v>470.5847128405361</v>
       </c>
       <c r="M13" t="n">
-        <v>714.1904553447743</v>
+        <v>714.1904553447747</v>
       </c>
       <c r="N13" t="n">
-        <v>957.3332466068809</v>
+        <v>957.3332466068814</v>
       </c>
       <c r="O13" t="n">
-        <v>1177.722352077497</v>
+        <v>1177.722352077498</v>
       </c>
       <c r="P13" t="n">
-        <v>1357.735393016881</v>
+        <v>1357.735393016882</v>
       </c>
       <c r="Q13" t="n">
         <v>1428.10685896269</v>
       </c>
       <c r="R13" t="n">
-        <v>1379.457596424592</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S13" t="n">
-        <v>1259.89823519289</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T13" t="n">
-        <v>1117.658424212474</v>
+        <v>1166.307686750573</v>
       </c>
       <c r="U13" t="n">
-        <v>920.3775934911272</v>
+        <v>969.026856029226</v>
       </c>
       <c r="V13" t="n">
-        <v>749.5383823208142</v>
+        <v>798.1876448589132</v>
       </c>
       <c r="W13" t="n">
-        <v>553.2780741094775</v>
+        <v>601.9273366475768</v>
       </c>
       <c r="X13" t="n">
-        <v>548.2736809747586</v>
+        <v>460.5709658142171</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1346154383</v>
+        <v>328.4319002777585</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1815.791272872459</v>
+        <v>1574.805435907376</v>
       </c>
       <c r="C14" t="n">
-        <v>1523.753607476531</v>
+        <v>1282.767770511448</v>
       </c>
       <c r="D14" t="n">
-        <v>1240.825735975018</v>
+        <v>999.8398990099361</v>
       </c>
       <c r="E14" t="n">
-        <v>935.9361093523898</v>
+        <v>999.8398990099361</v>
       </c>
       <c r="F14" t="n">
-        <v>611.6810119338247</v>
+        <v>675.5848015913708</v>
       </c>
       <c r="G14" t="n">
-        <v>287.9810183846522</v>
+        <v>349.921127154767</v>
       </c>
       <c r="H14" t="n">
-        <v>50.62931842731713</v>
+        <v>112.5694271974319</v>
       </c>
       <c r="I14" t="n">
         <v>50.62931842731713</v>
@@ -5282,10 +5282,10 @@
         <v>475.8880155938954</v>
       </c>
       <c r="L14" t="n">
-        <v>907.9461548436963</v>
+        <v>719.2973161773715</v>
       </c>
       <c r="M14" t="n">
-        <v>1394.843741810911</v>
+        <v>1206.194903144586</v>
       </c>
       <c r="N14" t="n">
         <v>1679.700173710447</v>
@@ -5303,25 +5303,25 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S14" t="n">
-        <v>2531.465921365857</v>
+        <v>2446.534426037118</v>
       </c>
       <c r="T14" t="n">
-        <v>2531.465921365857</v>
+        <v>2314.453891002492</v>
       </c>
       <c r="U14" t="n">
-        <v>2366.520215858151</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="V14" t="n">
-        <v>2119.437035025356</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="W14" t="n">
-        <v>2119.437035025356</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="X14" t="n">
-        <v>2119.437035025356</v>
+        <v>2149.508185494786</v>
       </c>
       <c r="Y14" t="n">
-        <v>1815.791272872459</v>
+        <v>1845.862423341889</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>916.8133128779672</v>
+        <v>916.813312877967</v>
       </c>
       <c r="C15" t="n">
-        <v>755.109640118922</v>
+        <v>755.1096401189217</v>
       </c>
       <c r="D15" t="n">
-        <v>616.2710031091342</v>
+        <v>616.2710031091337</v>
       </c>
       <c r="E15" t="n">
-        <v>469.2429931660054</v>
+        <v>469.2429931660049</v>
       </c>
       <c r="F15" t="n">
-        <v>334.5491951158797</v>
+        <v>334.5491951158793</v>
       </c>
       <c r="G15" t="n">
-        <v>206.1118778881641</v>
+        <v>206.1118778881637</v>
       </c>
       <c r="H15" t="n">
-        <v>108.9862327738865</v>
+        <v>108.986232773886</v>
       </c>
       <c r="I15" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J15" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K15" t="n">
-        <v>413.4208828411997</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="L15" t="n">
-        <v>841.2082694571444</v>
+        <v>478.4167050432619</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.281940533323</v>
+        <v>1035.760922695</v>
       </c>
       <c r="N15" t="n">
-        <v>1714.772304204091</v>
+        <v>1621.251286365768</v>
       </c>
       <c r="O15" t="n">
-        <v>2174.873370568727</v>
+        <v>2081.352352730404</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.465921365857</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.465921365857</v>
@@ -5382,19 +5382,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.369630108873</v>
+        <v>2342.369630108872</v>
       </c>
       <c r="T15" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U15" t="n">
-        <v>1936.382561450211</v>
+        <v>1936.38256145021</v>
       </c>
       <c r="V15" t="n">
-        <v>1707.986938898545</v>
+        <v>1707.986938898544</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.671070131855</v>
+        <v>1466.671070131854</v>
       </c>
       <c r="X15" t="n">
         <v>1268.754082009649</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>369.4410020678877</v>
+        <v>366.9116904011013</v>
       </c>
       <c r="C16" t="n">
-        <v>369.4410020678877</v>
+        <v>287.191814134046</v>
       </c>
       <c r="D16" t="n">
-        <v>306.2652021669149</v>
+        <v>287.191814134046</v>
       </c>
       <c r="E16" t="n">
-        <v>306.2652021669149</v>
+        <v>227.4856646413285</v>
       </c>
       <c r="F16" t="n">
-        <v>243.6806404639566</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="G16" t="n">
-        <v>164.90110293837</v>
+        <v>164.9011029383701</v>
       </c>
       <c r="H16" t="n">
-        <v>97.59498047002067</v>
+        <v>97.59498047002073</v>
       </c>
       <c r="I16" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J16" t="n">
-        <v>96.79005415413189</v>
+        <v>96.79005415413172</v>
       </c>
       <c r="K16" t="n">
-        <v>246.2990519958644</v>
+        <v>246.2990519958641</v>
       </c>
       <c r="L16" t="n">
-        <v>470.5847128405363</v>
+        <v>470.584712840536</v>
       </c>
       <c r="M16" t="n">
-        <v>714.1904553447748</v>
+        <v>714.1904553447746</v>
       </c>
       <c r="N16" t="n">
-        <v>957.3332466068816</v>
+        <v>957.3332466068812</v>
       </c>
       <c r="O16" t="n">
-        <v>1177.722352077498</v>
+        <v>1177.722352077497</v>
       </c>
       <c r="P16" t="n">
-        <v>1357.735393016882</v>
+        <v>1357.735393016881</v>
       </c>
       <c r="Q16" t="n">
-        <v>1428.106858962691</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="R16" t="n">
-        <v>1379.457596424593</v>
+        <v>1428.10685896269</v>
       </c>
       <c r="S16" t="n">
-        <v>1259.898235192891</v>
+        <v>1308.547497730988</v>
       </c>
       <c r="T16" t="n">
-        <v>1117.658424212475</v>
+        <v>1166.307686750572</v>
       </c>
       <c r="U16" t="n">
-        <v>1103.69523323247</v>
+        <v>969.0268560292259</v>
       </c>
       <c r="V16" t="n">
-        <v>932.8560220621574</v>
+        <v>798.187644858913</v>
       </c>
       <c r="W16" t="n">
-        <v>736.5957138508211</v>
+        <v>601.9273366475766</v>
       </c>
       <c r="X16" t="n">
-        <v>595.2393430174615</v>
+        <v>460.5709658142167</v>
       </c>
       <c r="Y16" t="n">
-        <v>463.100277481003</v>
+        <v>460.5709658142167</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>704.7792099021224</v>
       </c>
       <c r="F17" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961235</v>
       </c>
       <c r="G17" t="n">
         <v>210.274158272086</v>
       </c>
       <c r="H17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="I17" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J17" t="n">
-        <v>167.8985774144699</v>
+        <v>131.2819911811619</v>
       </c>
       <c r="K17" t="n">
-        <v>475.8880155938954</v>
+        <v>439.2714293605873</v>
       </c>
       <c r="L17" t="n">
-        <v>907.9461548436963</v>
+        <v>871.3295686103883</v>
       </c>
       <c r="M17" t="n">
-        <v>1394.843741810911</v>
+        <v>1358.227155577603</v>
       </c>
       <c r="N17" t="n">
-        <v>1868.349012376772</v>
+        <v>1831.732426143464</v>
       </c>
       <c r="O17" t="n">
         <v>2226.607036788429</v>
@@ -5540,16 +5540,16 @@
         <v>2531.465921365857</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.241286149685</v>
+        <v>2524.241286149684</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.867611227624</v>
+        <v>2469.867611227625</v>
       </c>
       <c r="U17" t="n">
         <v>2382.628765832485</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.252445112257</v>
+        <v>2213.252445112256</v>
       </c>
       <c r="W17" t="n">
         <v>2018.320468353688</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>916.8133128779675</v>
+        <v>916.8133128779676</v>
       </c>
       <c r="C18" t="n">
-        <v>755.1096401189222</v>
+        <v>755.1096401189225</v>
       </c>
       <c r="D18" t="n">
-        <v>616.2710031091343</v>
+        <v>616.2710031091347</v>
       </c>
       <c r="E18" t="n">
-        <v>469.2429931660055</v>
+        <v>469.2429931660058</v>
       </c>
       <c r="F18" t="n">
-        <v>334.5491951158799</v>
+        <v>334.5491951158802</v>
       </c>
       <c r="G18" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881641</v>
       </c>
       <c r="H18" t="n">
         <v>108.986232773886</v>
       </c>
       <c r="I18" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="J18" t="n">
         <v>137.8463925088448</v>
@@ -5598,31 +5598,31 @@
         <v>413.4208828411997</v>
       </c>
       <c r="L18" t="n">
-        <v>837.8376045017449</v>
+        <v>841.2082694571445</v>
       </c>
       <c r="M18" t="n">
-        <v>1395.181822153483</v>
+        <v>1398.552487108883</v>
       </c>
       <c r="N18" t="n">
-        <v>1980.672185824251</v>
+        <v>1984.042850779651</v>
       </c>
       <c r="O18" t="n">
-        <v>1980.672185824251</v>
+        <v>2444.143917144287</v>
       </c>
       <c r="P18" t="n">
-        <v>2337.264736621381</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.465921365857</v>
       </c>
       <c r="R18" t="n">
-        <v>2489.760525245193</v>
+        <v>2489.760525245194</v>
       </c>
       <c r="S18" t="n">
         <v>2342.369630108873</v>
       </c>
       <c r="T18" t="n">
-        <v>2154.858197092098</v>
+        <v>2154.858197092099</v>
       </c>
       <c r="U18" t="n">
         <v>1936.382561450211</v>
@@ -5634,10 +5634,10 @@
         <v>1466.671070131855</v>
       </c>
       <c r="X18" t="n">
-        <v>1268.754082009649</v>
+        <v>1268.75408200965</v>
       </c>
       <c r="Y18" t="n">
-        <v>1076.232755659228</v>
+        <v>1076.232755659229</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.71501199482654</v>
+        <v>72.70698219218934</v>
       </c>
       <c r="C19" t="n">
-        <v>51.70199584033751</v>
+        <v>70.69396603770035</v>
       </c>
       <c r="D19" t="n">
-        <v>51.70199584033751</v>
+        <v>70.69396603770035</v>
       </c>
       <c r="E19" t="n">
-        <v>51.70199584033751</v>
+        <v>70.69396603770035</v>
       </c>
       <c r="F19" t="n">
-        <v>51.70199584033751</v>
+        <v>70.69396603770035</v>
       </c>
       <c r="G19" t="n">
-        <v>50.62931842731713</v>
+        <v>69.62128862468001</v>
       </c>
       <c r="H19" t="n">
-        <v>50.62931842731713</v>
+        <v>69.62128862468001</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62931842731713</v>
+        <v>69.62128862468001</v>
       </c>
       <c r="J19" t="n">
-        <v>50.62931842731713</v>
+        <v>50.62931842731714</v>
       </c>
       <c r="K19" t="n">
         <v>112.0311552538833</v>
@@ -5695,28 +5695,28 @@
         <v>782.9316911990691</v>
       </c>
       <c r="R19" t="n">
-        <v>782.9316911990691</v>
+        <v>644.3863353897067</v>
       </c>
       <c r="S19" t="n">
-        <v>741.0791900799333</v>
+        <v>602.533834270571</v>
       </c>
       <c r="T19" t="n">
-        <v>519.0089132053589</v>
+        <v>538.0008834027215</v>
       </c>
       <c r="U19" t="n">
-        <v>399.4349425965785</v>
+        <v>418.4269127939411</v>
       </c>
       <c r="V19" t="n">
-        <v>306.3025915388317</v>
+        <v>325.2945617361944</v>
       </c>
       <c r="W19" t="n">
-        <v>187.7491434400615</v>
+        <v>206.7411136374242</v>
       </c>
       <c r="X19" t="n">
-        <v>124.0996327192679</v>
+        <v>143.0916029166307</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.66742729537569</v>
+        <v>88.65939749273846</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.513793084492</v>
+        <v>1351.513793084493</v>
       </c>
       <c r="C20" t="n">
-        <v>1137.182987801131</v>
+        <v>1137.18298780113</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9619764121851</v>
+        <v>931.9619764121849</v>
       </c>
       <c r="E20" t="n">
-        <v>704.7792099021226</v>
+        <v>704.7792099021224</v>
       </c>
       <c r="F20" t="n">
-        <v>458.2309725961236</v>
+        <v>458.2309725961234</v>
       </c>
       <c r="G20" t="n">
         <v>210.274158272086</v>
@@ -5753,22 +5753,22 @@
         <v>50.62931842731713</v>
       </c>
       <c r="K20" t="n">
-        <v>287.2391769275706</v>
+        <v>358.6187566067426</v>
       </c>
       <c r="L20" t="n">
-        <v>719.2973161773715</v>
+        <v>790.6768958565435</v>
       </c>
       <c r="M20" t="n">
-        <v>1206.194903144586</v>
+        <v>1277.574482823758</v>
       </c>
       <c r="N20" t="n">
-        <v>1679.700173710447</v>
+        <v>1751.079753389619</v>
       </c>
       <c r="O20" t="n">
-        <v>2074.574784355413</v>
+        <v>2145.954364034585</v>
       </c>
       <c r="P20" t="n">
-        <v>2379.433668932841</v>
+        <v>2450.813248612012</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.465921365857</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.813312877967</v>
+        <v>916.8133128779675</v>
       </c>
       <c r="C21" t="n">
-        <v>755.1096401189217</v>
+        <v>755.1096401189222</v>
       </c>
       <c r="D21" t="n">
-        <v>616.2710031091337</v>
+        <v>616.2710031091343</v>
       </c>
       <c r="E21" t="n">
-        <v>469.2429931660049</v>
+        <v>469.2429931660055</v>
       </c>
       <c r="F21" t="n">
-        <v>334.5491951158793</v>
+        <v>334.5491951158799</v>
       </c>
       <c r="G21" t="n">
-        <v>206.1118778881637</v>
+        <v>206.1118778881643</v>
       </c>
       <c r="H21" t="n">
-        <v>108.986232773886</v>
+        <v>108.9862327738867</v>
       </c>
       <c r="I21" t="n">
         <v>50.62931842731713</v>
       </c>
       <c r="J21" t="n">
-        <v>137.8463925088448</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="K21" t="n">
-        <v>413.4208828411997</v>
+        <v>50.62931842731713</v>
       </c>
       <c r="L21" t="n">
-        <v>413.4208828411997</v>
+        <v>478.4167050432619</v>
       </c>
       <c r="M21" t="n">
-        <v>970.765100492938</v>
+        <v>1035.760922695</v>
       </c>
       <c r="N21" t="n">
-        <v>1556.255464163706</v>
+        <v>1621.251286365768</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.356530528342</v>
+        <v>2081.352352730404</v>
       </c>
       <c r="P21" t="n">
-        <v>2337.264736621381</v>
+        <v>2437.944903527534</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.465921365857</v>
@@ -5856,19 +5856,19 @@
         <v>2489.760525245193</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.369630108872</v>
+        <v>2342.369630108873</v>
       </c>
       <c r="T21" t="n">
         <v>2154.858197092098</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.38256145021</v>
+        <v>1936.382561450211</v>
       </c>
       <c r="V21" t="n">
-        <v>1707.986938898544</v>
+        <v>1707.986938898545</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.671070131854</v>
+        <v>1466.671070131855</v>
       </c>
       <c r="X21" t="n">
         <v>1268.754082009649</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.1956669690494</v>
+        <v>211.2523380015514</v>
       </c>
       <c r="C22" t="n">
-        <v>204.1826508145604</v>
+        <v>209.2393218470623</v>
       </c>
       <c r="D22" t="n">
-        <v>204.1826508145604</v>
+        <v>209.2393218470623</v>
       </c>
       <c r="E22" t="n">
-        <v>204.1826508145604</v>
+        <v>209.2393218470623</v>
       </c>
       <c r="F22" t="n">
-        <v>51.70199584033751</v>
+        <v>209.2393218470623</v>
       </c>
       <c r="G22" t="n">
-        <v>50.62931842731713</v>
+        <v>208.166644434042</v>
       </c>
       <c r="H22" t="n">
-        <v>50.62931842731713</v>
+        <v>187.4910737412852</v>
       </c>
       <c r="I22" t="n">
         <v>50.62931842731713</v>
@@ -5969,13 +5969,13 @@
         <v>1137.182987801131</v>
       </c>
       <c r="D23" t="n">
-        <v>931.9619764121849</v>
+        <v>931.9619764121851</v>
       </c>
       <c r="E23" t="n">
-        <v>704.7792099021224</v>
+        <v>704.7792099021226</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2309725961234</v>
+        <v>458.2309725961236</v>
       </c>
       <c r="G23" t="n">
         <v>210.274158272086</v>
@@ -6026,10 +6026,10 @@
         <v>2213.252445112257</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.320468353688</v>
+        <v>2018.320468353689</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.893281259012</v>
+        <v>1803.893281259013</v>
       </c>
       <c r="Y23" t="n">
         <v>1577.954379218681</v>
@@ -6066,28 +6066,28 @@
         <v>50.62931842731713</v>
       </c>
       <c r="J24" t="n">
-        <v>50.62931842731713</v>
+        <v>137.8463925088448</v>
       </c>
       <c r="K24" t="n">
-        <v>50.62931842731713</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="L24" t="n">
-        <v>478.4167050432619</v>
+        <v>413.4208828411997</v>
       </c>
       <c r="M24" t="n">
-        <v>1035.760922695</v>
+        <v>970.765100492938</v>
       </c>
       <c r="N24" t="n">
-        <v>1621.251286365768</v>
+        <v>1556.255464163706</v>
       </c>
       <c r="O24" t="n">
-        <v>2081.352352730404</v>
+        <v>1980.672185824251</v>
       </c>
       <c r="P24" t="n">
-        <v>2437.944903527533</v>
+        <v>2337.264736621381</v>
       </c>
       <c r="Q24" t="n">
-        <v>2531.465921365856</v>
+        <v>2531.465921365857</v>
       </c>
       <c r="R24" t="n">
         <v>2489.760525245193</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.71501199482654</v>
+        <v>211.2523380015514</v>
       </c>
       <c r="C25" t="n">
-        <v>51.70199584033751</v>
+        <v>94.50010347053004</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70199584033751</v>
+        <v>94.50010347053004</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70199584033751</v>
+        <v>94.50010347053004</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70199584033751</v>
+        <v>94.50010347053004</v>
       </c>
       <c r="G25" t="n">
-        <v>50.62931842731713</v>
+        <v>93.42742605750965</v>
       </c>
       <c r="H25" t="n">
-        <v>50.62931842731713</v>
+        <v>93.42742605750965</v>
       </c>
       <c r="I25" t="n">
-        <v>50.62931842731713</v>
+        <v>93.42742605750965</v>
       </c>
       <c r="J25" t="n">
         <v>50.62931842731713</v>
@@ -6169,28 +6169,28 @@
         <v>782.9316911990691</v>
       </c>
       <c r="R25" t="n">
-        <v>644.3863353897067</v>
+        <v>782.9316911990691</v>
       </c>
       <c r="S25" t="n">
-        <v>583.5418640732084</v>
+        <v>741.0791900799333</v>
       </c>
       <c r="T25" t="n">
-        <v>519.0089132053589</v>
+        <v>676.5462392120837</v>
       </c>
       <c r="U25" t="n">
-        <v>399.4349425965785</v>
+        <v>556.9722686033033</v>
       </c>
       <c r="V25" t="n">
-        <v>306.3025915388317</v>
+        <v>463.8399175455565</v>
       </c>
       <c r="W25" t="n">
-        <v>187.7491434400615</v>
+        <v>345.2864694467863</v>
       </c>
       <c r="X25" t="n">
-        <v>124.0996327192679</v>
+        <v>281.6369587259928</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.66742729537569</v>
+        <v>227.2047533021005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.517264476237</v>
+        <v>1803.517264476239</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.118002027182</v>
+        <v>1525.118002027184</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.828533472544</v>
+        <v>1255.828533472545</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5773097967881</v>
+        <v>964.5773097967895</v>
       </c>
       <c r="F26" t="n">
-        <v>653.9606153250961</v>
+        <v>653.9606153250975</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9353438353655</v>
+        <v>341.9353438353669</v>
       </c>
       <c r="H26" t="n">
         <v>118.2220468249039</v>
@@ -6224,13 +6224,13 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J26" t="n">
-        <v>288.6637597322124</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K26" t="n">
-        <v>596.800282617738</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L26" t="n">
-        <v>1130.332581610936</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M26" t="n">
         <v>1718.704328321547</v>
@@ -6254,22 +6254,22 @@
         <v>3424.723957701281</v>
       </c>
       <c r="T26" t="n">
-        <v>3306.281825613528</v>
+        <v>3306.281825613529</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.974523052694</v>
+        <v>3154.974523052696</v>
       </c>
       <c r="V26" t="n">
-        <v>2921.529745166773</v>
+        <v>2921.529745166775</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.529311242512</v>
+        <v>2662.529311242514</v>
       </c>
       <c r="X26" t="n">
-        <v>2384.033666982143</v>
+        <v>2384.033666982144</v>
       </c>
       <c r="Y26" t="n">
-        <v>2094.026307776119</v>
+        <v>2094.02630777612</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>432.7119054155455</v>
       </c>
       <c r="L27" t="n">
-        <v>860.4992920314902</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="M27" t="n">
-        <v>1417.843509683229</v>
+        <v>990.0561230672838</v>
       </c>
       <c r="N27" t="n">
-        <v>2003.333873353997</v>
+        <v>1575.546486738052</v>
       </c>
       <c r="O27" t="n">
-        <v>2463.434939718632</v>
+        <v>2035.647553102687</v>
       </c>
       <c r="P27" t="n">
-        <v>2463.434939718632</v>
+        <v>2392.240103899817</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.756943940202</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>435.0960012485937</v>
+        <v>435.0960012485936</v>
       </c>
       <c r="C28" t="n">
-        <v>369.0145279284117</v>
+        <v>369.0145279284115</v>
       </c>
       <c r="D28" t="n">
-        <v>319.477130974312</v>
+        <v>319.4771309743119</v>
       </c>
       <c r="E28" t="n">
-        <v>271.0026129537686</v>
+        <v>271.0026129537684</v>
       </c>
       <c r="F28" t="n">
-        <v>222.0564541976834</v>
+        <v>222.0564541976832</v>
       </c>
       <c r="G28" t="n">
-        <v>156.91531961897</v>
+        <v>156.9153196189698</v>
       </c>
       <c r="H28" t="n">
         <v>103.2476000974933</v>
@@ -6385,16 +6385,16 @@
         <v>129.448075456708</v>
       </c>
       <c r="K28" t="n">
-        <v>292.3240720266707</v>
+        <v>292.3240720266708</v>
       </c>
       <c r="L28" t="n">
         <v>529.9767315995731</v>
       </c>
       <c r="M28" t="n">
-        <v>786.9494728320423</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N28" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O28" t="n">
         <v>1277.215367021226</v>
@@ -6427,7 +6427,7 @@
         <v>633.6175363044212</v>
       </c>
       <c r="Y28" t="n">
-        <v>515.1168737148358</v>
+        <v>515.1168737148357</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476238</v>
       </c>
       <c r="C29" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027183</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472544</v>
       </c>
       <c r="E29" t="n">
-        <v>964.5773097967895</v>
+        <v>964.577309796789</v>
       </c>
       <c r="F29" t="n">
-        <v>653.9606153250975</v>
+        <v>653.960615325097</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9353438353669</v>
+        <v>341.9353438353664</v>
       </c>
       <c r="H29" t="n">
         <v>118.2220468249039</v>
@@ -6461,31 +6461,31 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J29" t="n">
-        <v>288.6637597322124</v>
+        <v>288.6637597322125</v>
       </c>
       <c r="K29" t="n">
-        <v>596.800282617738</v>
+        <v>698.1273576550348</v>
       </c>
       <c r="L29" t="n">
-        <v>1130.332581610936</v>
+        <v>1231.659656648232</v>
       </c>
       <c r="M29" t="n">
-        <v>1718.704328321547</v>
+        <v>1820.031403358844</v>
       </c>
       <c r="N29" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P29" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q29" t="n">
-        <v>3449.871985516404</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="R29" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S29" t="n">
         <v>3424.723957701281</v>
@@ -6494,10 +6494,10 @@
         <v>3306.281825613528</v>
       </c>
       <c r="U29" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052695</v>
       </c>
       <c r="V29" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166774</v>
       </c>
       <c r="W29" t="n">
         <v>2662.529311242513</v>
@@ -6540,25 +6540,25 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J30" t="n">
-        <v>69.92034100166293</v>
+        <v>157.1374150831905</v>
       </c>
       <c r="K30" t="n">
-        <v>163.4413588399855</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="L30" t="n">
-        <v>591.2287454559303</v>
+        <v>432.7119054155455</v>
       </c>
       <c r="M30" t="n">
-        <v>1148.572963107669</v>
+        <v>990.0561230672838</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.063326778437</v>
+        <v>1575.546486738052</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.164393143072</v>
+        <v>2035.647553102687</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.756943940202</v>
+        <v>2392.240103899817</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.756943940202</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.0960012485933</v>
+        <v>435.096001248593</v>
       </c>
       <c r="C31" t="n">
-        <v>369.0145279284112</v>
+        <v>369.014527928411</v>
       </c>
       <c r="D31" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743115</v>
       </c>
       <c r="E31" t="n">
-        <v>271.0026129537681</v>
+        <v>271.002612953768</v>
       </c>
       <c r="F31" t="n">
-        <v>222.0564541976829</v>
+        <v>222.0564541976828</v>
       </c>
       <c r="G31" t="n">
         <v>156.9153196189694</v>
@@ -6619,16 +6619,16 @@
         <v>69.92034100166293</v>
       </c>
       <c r="J31" t="n">
-        <v>129.448075456708</v>
+        <v>129.4480754567079</v>
       </c>
       <c r="K31" t="n">
-        <v>292.3240720266708</v>
+        <v>292.3240720266705</v>
       </c>
       <c r="L31" t="n">
-        <v>529.9767315995731</v>
+        <v>529.9767315995728</v>
       </c>
       <c r="M31" t="n">
-        <v>786.9494728320421</v>
+        <v>786.9494728320419</v>
       </c>
       <c r="N31" t="n">
         <v>1043.459262822379</v>
@@ -6640,13 +6640,13 @@
         <v>1470.59540668884</v>
       </c>
       <c r="Q31" t="n">
-        <v>1554.33387136288</v>
+        <v>1554.333871362879</v>
       </c>
       <c r="R31" t="n">
-        <v>1519.323011771654</v>
+        <v>1519.323011771655</v>
       </c>
       <c r="S31" t="n">
-        <v>1413.402053486825</v>
+        <v>1413.402053486826</v>
       </c>
       <c r="T31" t="n">
         <v>1284.800645453283</v>
@@ -6655,16 +6655,16 @@
         <v>1101.15821767881</v>
       </c>
       <c r="V31" t="n">
-        <v>943.9574094553699</v>
+        <v>943.9574094553702</v>
       </c>
       <c r="W31" t="n">
-        <v>761.3355041909067</v>
+        <v>761.335504190907</v>
       </c>
       <c r="X31" t="n">
-        <v>633.6175363044201</v>
+        <v>633.6175363044205</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148352</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1803.517264476239</v>
+        <v>1803.517264476237</v>
       </c>
       <c r="C32" t="n">
-        <v>1525.118002027184</v>
+        <v>1525.118002027182</v>
       </c>
       <c r="D32" t="n">
-        <v>1255.828533472545</v>
+        <v>1255.828533472543</v>
       </c>
       <c r="E32" t="n">
-        <v>964.5773097967895</v>
+        <v>964.5773097967874</v>
       </c>
       <c r="F32" t="n">
-        <v>653.9606153250973</v>
+        <v>653.9606153250952</v>
       </c>
       <c r="G32" t="n">
-        <v>341.9353438353667</v>
+        <v>341.9353438353646</v>
       </c>
       <c r="H32" t="n">
-        <v>118.2220468249039</v>
+        <v>118.222046824904</v>
       </c>
       <c r="I32" t="n">
         <v>69.92034100166293</v>
@@ -6710,40 +6710,40 @@
         <v>1820.031403358843</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.683758630805</v>
+        <v>2395.010833668101</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.032529019167</v>
+        <v>2891.359604056463</v>
       </c>
       <c r="P32" t="n">
-        <v>3196.365573339991</v>
+        <v>3297.692648377288</v>
       </c>
       <c r="Q32" t="n">
-        <v>3449.871985516404</v>
+        <v>3449.871985516403</v>
       </c>
       <c r="R32" t="n">
-        <v>3496.017050083147</v>
+        <v>3496.017050083146</v>
       </c>
       <c r="S32" t="n">
-        <v>3424.723957701282</v>
+        <v>3424.72395770128</v>
       </c>
       <c r="T32" t="n">
-        <v>3306.281825613529</v>
+        <v>3306.281825613527</v>
       </c>
       <c r="U32" t="n">
-        <v>3154.974523052696</v>
+        <v>3154.974523052694</v>
       </c>
       <c r="V32" t="n">
-        <v>2921.529745166775</v>
+        <v>2921.529745166773</v>
       </c>
       <c r="W32" t="n">
-        <v>2662.529311242514</v>
+        <v>2662.529311242512</v>
       </c>
       <c r="X32" t="n">
-        <v>2384.033666982145</v>
+        <v>2384.033666982143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2094.026307776121</v>
+        <v>2094.026307776118</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>157.1374150831905</v>
       </c>
       <c r="K33" t="n">
-        <v>432.7119054155455</v>
+        <v>163.4413588399852</v>
       </c>
       <c r="L33" t="n">
-        <v>860.4992920314902</v>
+        <v>591.22874545593</v>
       </c>
       <c r="M33" t="n">
-        <v>1417.843509683229</v>
+        <v>1148.572963107668</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.862142033961</v>
+        <v>1734.063326778437</v>
       </c>
       <c r="O33" t="n">
-        <v>1999.963208398597</v>
+        <v>2194.164393143072</v>
       </c>
       <c r="P33" t="n">
-        <v>2356.555759195726</v>
+        <v>2550.756943940202</v>
       </c>
       <c r="Q33" t="n">
         <v>2550.756943940202</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>435.0960012485933</v>
+        <v>435.0960012485934</v>
       </c>
       <c r="C34" t="n">
-        <v>369.0145279284112</v>
+        <v>369.0145279284114</v>
       </c>
       <c r="D34" t="n">
-        <v>319.4771309743116</v>
+        <v>319.4771309743118</v>
       </c>
       <c r="E34" t="n">
-        <v>271.0026129537681</v>
+        <v>271.0026129537682</v>
       </c>
       <c r="F34" t="n">
         <v>222.0564541976829</v>
@@ -6865,10 +6865,10 @@
         <v>529.9767315995731</v>
       </c>
       <c r="M34" t="n">
-        <v>786.9494728320428</v>
+        <v>786.9494728320421</v>
       </c>
       <c r="N34" t="n">
-        <v>1043.45926282238</v>
+        <v>1043.459262822379</v>
       </c>
       <c r="O34" t="n">
         <v>1277.215367021226</v>
@@ -6880,28 +6880,28 @@
         <v>1554.33387136288</v>
       </c>
       <c r="R34" t="n">
-        <v>1519.323011771655</v>
+        <v>1519.323011771656</v>
       </c>
       <c r="S34" t="n">
-        <v>1413.402053486826</v>
+        <v>1413.402053486827</v>
       </c>
       <c r="T34" t="n">
         <v>1284.800645453284</v>
       </c>
       <c r="U34" t="n">
-        <v>1101.15821767881</v>
+        <v>1101.158217678811</v>
       </c>
       <c r="V34" t="n">
-        <v>943.9574094553706</v>
+        <v>943.9574094553708</v>
       </c>
       <c r="W34" t="n">
-        <v>761.3355041909074</v>
+        <v>761.3355041909075</v>
       </c>
       <c r="X34" t="n">
-        <v>633.6175363044208</v>
+        <v>633.6175363044209</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.1168737148355</v>
+        <v>515.1168737148356</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>749.0539373442191</v>
       </c>
       <c r="F35" t="n">
-        <v>489.0307829906257</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G35" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H35" t="n">
         <v>54.47929472662988</v>
@@ -6938,10 +6938,10 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K35" t="n">
-        <v>479.7379918932083</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L35" t="n">
-        <v>911.7961311430095</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M35" t="n">
         <v>1398.693718110224</v>
@@ -6950,7 +6950,7 @@
         <v>1872.198988676085</v>
       </c>
       <c r="O35" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P35" t="n">
         <v>2571.932483898478</v>
@@ -6974,7 +6974,7 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W35" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X35" t="n">
         <v>1915.542593939082</v>
@@ -7017,16 +7017,16 @@
         <v>141.6963688081575</v>
       </c>
       <c r="K36" t="n">
-        <v>141.6963688081575</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L36" t="n">
-        <v>381.5865144364213</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="M36" t="n">
-        <v>938.9307320881596</v>
+        <v>974.6150767922506</v>
       </c>
       <c r="N36" t="n">
-        <v>1524.421095758928</v>
+        <v>1560.105440463019</v>
       </c>
       <c r="O36" t="n">
         <v>1984.522162123563</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.589001792706</v>
+        <v>87.58900179270626</v>
       </c>
       <c r="C37" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D37" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E37" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F37" t="n">
-        <v>72.10106859062245</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G37" t="n">
-        <v>57.55347413000754</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H37" t="n">
         <v>54.47929472662988</v>
@@ -7120,25 +7120,25 @@
         <v>786.7816674983818</v>
       </c>
       <c r="S37" t="n">
-        <v>731.4542493316516</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T37" t="n">
-        <v>653.4463814162075</v>
+        <v>633.7324052888061</v>
       </c>
       <c r="U37" t="n">
-        <v>500.6835176324304</v>
+        <v>500.6835176324312</v>
       </c>
       <c r="V37" t="n">
-        <v>394.0762495270892</v>
+        <v>394.0762495270898</v>
       </c>
       <c r="W37" t="n">
-        <v>262.0478843807245</v>
+        <v>262.047884380725</v>
       </c>
       <c r="X37" t="n">
-        <v>184.9234566123364</v>
+        <v>184.9234566123368</v>
       </c>
       <c r="Y37" t="n">
-        <v>117.0163341408497</v>
+        <v>117.01633414085</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1436.213271669372</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.407549338416</v>
+        <v>1208.407549338417</v>
       </c>
       <c r="D38" t="n">
-        <v>989.7116209018753</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E38" t="n">
-        <v>749.0539373442182</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F38" t="n">
-        <v>489.0307829906246</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G38" t="n">
-        <v>227.5990516189933</v>
+        <v>227.5990516189934</v>
       </c>
       <c r="H38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I38" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J38" t="n">
         <v>171.7485537137827</v>
@@ -7178,25 +7178,25 @@
         <v>479.7379918932083</v>
       </c>
       <c r="L38" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430092</v>
       </c>
       <c r="M38" t="n">
-        <v>1398.693718110223</v>
+        <v>1398.693718110224</v>
       </c>
       <c r="N38" t="n">
         <v>1872.198988676085</v>
       </c>
       <c r="O38" t="n">
-        <v>2267.07359932105</v>
+        <v>2267.073599321051</v>
       </c>
       <c r="P38" t="n">
         <v>2571.932483898478</v>
       </c>
       <c r="Q38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R38" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S38" t="n">
         <v>2703.265184067726</v>
@@ -7205,19 +7205,19 @@
         <v>2635.416592098072</v>
       </c>
       <c r="U38" t="n">
-        <v>2534.702829655337</v>
+        <v>2534.702829655338</v>
       </c>
       <c r="V38" t="n">
         <v>2351.851591887515</v>
       </c>
       <c r="W38" t="n">
-        <v>2143.444698081352</v>
+        <v>2143.444698081353</v>
       </c>
       <c r="X38" t="n">
-        <v>1915.542593939081</v>
+        <v>1915.542593939082</v>
       </c>
       <c r="Y38" t="n">
-        <v>1676.128774851155</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I39" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J39" t="n">
-        <v>54.47929472662987</v>
+        <v>141.6963688081575</v>
       </c>
       <c r="K39" t="n">
-        <v>148.0003125649521</v>
+        <v>417.2708591405124</v>
       </c>
       <c r="L39" t="n">
-        <v>575.7876991808969</v>
+        <v>845.0582457564572</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.131916832635</v>
+        <v>1402.402463408195</v>
       </c>
       <c r="N39" t="n">
-        <v>1718.622280503403</v>
+        <v>1524.421095758928</v>
       </c>
       <c r="O39" t="n">
-        <v>2178.723346868039</v>
+        <v>1984.522162123563</v>
       </c>
       <c r="P39" t="n">
-        <v>2535.315897665168</v>
+        <v>2341.114712920693</v>
       </c>
       <c r="Q39" t="n">
         <v>2535.315897665168</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.58900179270616</v>
+        <v>107.3029779201074</v>
       </c>
       <c r="C40" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="D40" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="E40" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="F40" t="n">
-        <v>72.10106859062255</v>
+        <v>72.10106859062262</v>
       </c>
       <c r="G40" t="n">
-        <v>57.55347413000759</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J40" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K40" t="n">
         <v>115.881131553196</v>
@@ -7351,31 +7351,31 @@
         <v>786.7816674983818</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="R40" t="n">
-        <v>768.6858659787845</v>
+        <v>786.7816674983818</v>
       </c>
       <c r="S40" t="n">
-        <v>713.3584478120541</v>
+        <v>731.4542493316515</v>
       </c>
       <c r="T40" t="n">
-        <v>633.7324052888059</v>
+        <v>653.4463814162073</v>
       </c>
       <c r="U40" t="n">
-        <v>500.6835176324309</v>
+        <v>520.3974937598323</v>
       </c>
       <c r="V40" t="n">
-        <v>394.0762495270897</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W40" t="n">
-        <v>262.0478843807248</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X40" t="n">
-        <v>184.9234566123367</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y40" t="n">
-        <v>117.0163341408499</v>
+        <v>136.7303102682511</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1436.213271669374</v>
+        <v>1436.213271669373</v>
       </c>
       <c r="C41" t="n">
-        <v>1208.407549338417</v>
+        <v>1208.407549338416</v>
       </c>
       <c r="D41" t="n">
-        <v>989.7116209018767</v>
+        <v>989.7116209018761</v>
       </c>
       <c r="E41" t="n">
-        <v>749.0539373442198</v>
+        <v>749.0539373442191</v>
       </c>
       <c r="F41" t="n">
-        <v>489.0307829906263</v>
+        <v>489.0307829906256</v>
       </c>
       <c r="G41" t="n">
         <v>227.5990516189933</v>
       </c>
       <c r="H41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I41" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J41" t="n">
-        <v>171.7485537137826</v>
+        <v>171.7485537137825</v>
       </c>
       <c r="K41" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932079</v>
       </c>
       <c r="L41" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430089</v>
       </c>
       <c r="M41" t="n">
         <v>1398.693718110223</v>
@@ -7430,10 +7430,10 @@
         <v>2571.932483898478</v>
       </c>
       <c r="Q41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="R41" t="n">
-        <v>2723.964736331493</v>
+        <v>2723.964736331494</v>
       </c>
       <c r="S41" t="n">
         <v>2703.265184067726</v>
@@ -7448,13 +7448,13 @@
         <v>2351.851591887515</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.444698081353</v>
+        <v>2143.444698081352</v>
       </c>
       <c r="X41" t="n">
         <v>1915.542593939082</v>
       </c>
       <c r="Y41" t="n">
-        <v>1676.128774851157</v>
+        <v>1676.128774851156</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.8362090731988</v>
       </c>
       <c r="I42" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J42" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K42" t="n">
-        <v>417.2708591405124</v>
+        <v>148.0003125649519</v>
       </c>
       <c r="L42" t="n">
-        <v>845.0582457564572</v>
+        <v>575.7876991808967</v>
       </c>
       <c r="M42" t="n">
-        <v>1402.402463408195</v>
+        <v>1133.131916832635</v>
       </c>
       <c r="N42" t="n">
-        <v>1524.421095758928</v>
+        <v>1718.622280503403</v>
       </c>
       <c r="O42" t="n">
-        <v>1984.522162123563</v>
+        <v>2178.723346868039</v>
       </c>
       <c r="P42" t="n">
-        <v>2341.114712920693</v>
+        <v>2535.315897665168</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.315897665168</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>89.207176400511</v>
+        <v>89.20717640051072</v>
       </c>
       <c r="C43" t="n">
-        <v>73.71924319842748</v>
+        <v>73.71924319842716</v>
       </c>
       <c r="D43" t="n">
-        <v>73.71924319842748</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="E43" t="n">
-        <v>73.71924319842748</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="F43" t="n">
-        <v>73.71924319842748</v>
+        <v>72.10106859062245</v>
       </c>
       <c r="G43" t="n">
-        <v>59.1716487378126</v>
+        <v>57.55347413000754</v>
       </c>
       <c r="H43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="I43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="J43" t="n">
-        <v>54.47929472662987</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K43" t="n">
         <v>115.881131553196</v>
@@ -7600,19 +7600,19 @@
         <v>635.3505798966102</v>
       </c>
       <c r="U43" t="n">
-        <v>502.3016922402353</v>
+        <v>502.3016922402352</v>
       </c>
       <c r="V43" t="n">
-        <v>395.6944241348941</v>
+        <v>395.694424134894</v>
       </c>
       <c r="W43" t="n">
-        <v>263.6660589885294</v>
+        <v>263.6660589885292</v>
       </c>
       <c r="X43" t="n">
-        <v>186.5416312201414</v>
+        <v>186.5416312201411</v>
       </c>
       <c r="Y43" t="n">
-        <v>118.6345087486546</v>
+        <v>118.6345087486544</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1208.407549338417</v>
       </c>
       <c r="D44" t="n">
-        <v>989.7116209018764</v>
+        <v>989.7116209018759</v>
       </c>
       <c r="E44" t="n">
-        <v>749.0539373442193</v>
+        <v>749.0539373442186</v>
       </c>
       <c r="F44" t="n">
-        <v>489.0307829906258</v>
+        <v>489.0307829906255</v>
       </c>
       <c r="G44" t="n">
         <v>227.5990516189934</v>
@@ -7649,10 +7649,10 @@
         <v>171.7485537137827</v>
       </c>
       <c r="K44" t="n">
-        <v>479.7379918932081</v>
+        <v>479.7379918932082</v>
       </c>
       <c r="L44" t="n">
-        <v>911.796131143009</v>
+        <v>911.7961311430091</v>
       </c>
       <c r="M44" t="n">
         <v>1398.693718110224</v>
@@ -7673,7 +7673,7 @@
         <v>2723.964736331494</v>
       </c>
       <c r="S44" t="n">
-        <v>2703.265184067727</v>
+        <v>2703.265184067726</v>
       </c>
       <c r="T44" t="n">
         <v>2635.416592098073</v>
@@ -7725,25 +7725,25 @@
         <v>54.47929472662988</v>
       </c>
       <c r="J45" t="n">
-        <v>141.6963688081575</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="K45" t="n">
-        <v>417.2708591405124</v>
+        <v>54.47929472662988</v>
       </c>
       <c r="L45" t="n">
-        <v>845.0582457564572</v>
+        <v>482.2666813425747</v>
       </c>
       <c r="M45" t="n">
-        <v>1402.402463408195</v>
+        <v>1039.610898994313</v>
       </c>
       <c r="N45" t="n">
-        <v>1524.421095758928</v>
+        <v>1625.101262665081</v>
       </c>
       <c r="O45" t="n">
-        <v>1984.522162123563</v>
+        <v>2085.202329029717</v>
       </c>
       <c r="P45" t="n">
-        <v>2341.114712920693</v>
+        <v>2441.794879826847</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.315897665168</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.58900179270617</v>
+        <v>107.3029779201074</v>
       </c>
       <c r="C46" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802373</v>
       </c>
       <c r="D46" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802373</v>
       </c>
       <c r="E46" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802373</v>
       </c>
       <c r="F46" t="n">
-        <v>72.10106859062256</v>
+        <v>91.81504471802373</v>
       </c>
       <c r="G46" t="n">
-        <v>57.5534741300076</v>
+        <v>57.55347413000763</v>
       </c>
       <c r="H46" t="n">
         <v>54.47929472662988</v>
@@ -7840,16 +7840,16 @@
         <v>520.3974937598323</v>
       </c>
       <c r="V46" t="n">
-        <v>413.790225654491</v>
+        <v>413.7902256544909</v>
       </c>
       <c r="W46" t="n">
-        <v>281.7618605081262</v>
+        <v>281.7618605081261</v>
       </c>
       <c r="X46" t="n">
-        <v>204.6374327397381</v>
+        <v>204.637432739738</v>
       </c>
       <c r="Y46" t="n">
-        <v>136.7303102682513</v>
+        <v>136.7303102682511</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>182.8391489829799</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>584.3675935406823</v>
+        <v>393.813211049445</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8708,7 +8708,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>122.4415561073551</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8775,10 +8775,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>333.4261317885762</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>351.1546355601956</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8930,13 +8930,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>352.4051964243484</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>377.9966192443422</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -9003,16 +9003,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356945</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>333.4261317885762</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>312.3044609428751</v>
       </c>
       <c r="Q15" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>182.8391489829807</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9176,7 +9176,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>458.0537849008528</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9246,7 +9246,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>478.6877368183357</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9255,13 +9255,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>47.27246317627818</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>142.0111481454948</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K20" t="n">
-        <v>349.288450807997</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>203.9089023233595</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356945</v>
       </c>
       <c r="L21" t="n">
-        <v>49.98397756525981</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9495,10 +9495,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>377.9568066015241</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4033357675607</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9638,7 +9638,7 @@
         <v>101.3718027669759</v>
       </c>
       <c r="K23" t="n">
-        <v>349.288450807997</v>
+        <v>349.2884508079969</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>65.44673707356947</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525979</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9729,13 +9729,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>475.976222429354</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>171.4033357675607</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9957,7 +9957,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525979</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,10 +9969,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>53.80710347724199</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>165.1417058516483</v>
+        <v>237.0556814262095</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>159.9124116577337</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>482.0924488944969</v>
+        <v>49.98397756525979</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>76.93766118339641</v>
+        <v>237.0556814262095</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,7 +10428,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>71.81435702992773</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>154.9918226869876</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10665,10 +10665,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>65.44673707356947</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>292.2972559776475</v>
+        <v>49.98397756525979</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10677,7 +10677,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>475.9762224293531</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>75.82029131472582</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>159.9124116577334</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>623.1450866466196</v>
+        <v>154.9918226869873</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>76.93766118339641</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578762</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>159.9124116577331</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>154.9918226869874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>76.9376611833964</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11373,10 +11373,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>75.82029131472581</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>65.44673707356945</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>154.9918226869874</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>171.4033357675598</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.1059717842872</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.1172887419689</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.8407303564024</v>
+        <v>126.1412842216721</v>
       </c>
       <c r="F11" t="n">
-        <v>20.86628917500289</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>322.4070376922378</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>130.7597296842795</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>244.6123490244663</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>269.9124485024232</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>78.92267750438477</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>37.15658818372614</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4917917577426</v>
+        <v>61.49179175774252</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>61.95871608592883</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.63306124366586</v>
       </c>
       <c r="I13" t="n">
-        <v>46.49600542227661</v>
+        <v>46.49600542227653</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>48.16276991271691</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>134.9884579216545</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.1059717842871</v>
+        <v>32.75955422411991</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>301.8407303564024</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.944044078555749</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.32070768241302</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.08218037545159</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.7597296842794</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6123490244663</v>
       </c>
       <c r="W14" t="n">
-        <v>269.9124485024231</v>
+        <v>269.9124485024232</v>
       </c>
       <c r="X14" t="n">
-        <v>289.2127067351697</v>
+        <v>289.2127067351698</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>78.92267750438465</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.5440419019631</v>
       </c>
       <c r="E16" t="n">
-        <v>61.49179175774249</v>
+        <v>2.382703759952243</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>77.99174215033075</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>48.16276991271694</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.4844633439283</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>130.8176748810939</v>
       </c>
     </row>
     <row r="17">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191469.1578768262</v>
+        <v>191469.1578768261</v>
       </c>
       <c r="C2" t="n">
         <v>191469.1578768262</v>
@@ -26323,10 +26323,10 @@
         <v>167321.6995299416</v>
       </c>
       <c r="F2" t="n">
-        <v>167321.6995299417</v>
+        <v>167321.6995299415</v>
       </c>
       <c r="G2" t="n">
-        <v>191906.0151235455</v>
+        <v>191906.0151235456</v>
       </c>
       <c r="H2" t="n">
         <v>191906.0151235456</v>
@@ -26335,10 +26335,10 @@
         <v>191906.0151235456</v>
       </c>
       <c r="J2" t="n">
-        <v>191906.0151235454</v>
+        <v>191906.0151235455</v>
       </c>
       <c r="K2" t="n">
-        <v>191906.0151235454</v>
+        <v>191906.0151235455</v>
       </c>
       <c r="L2" t="n">
         <v>191906.0151235454</v>
@@ -26353,7 +26353,7 @@
         <v>191906.0151235455</v>
       </c>
       <c r="P2" t="n">
-        <v>191906.0151235456</v>
+        <v>191906.0151235455</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>367830.3395149714</v>
+        <v>367830.3395149715</v>
       </c>
       <c r="F3" t="n">
-        <v>8.85458056083215e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61543.83320915241</v>
+        <v>61543.83320915248</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83547.74167613921</v>
+        <v>83547.74167613927</v>
       </c>
       <c r="K3" t="n">
-        <v>7.71771218361599e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>61543.83320915241</v>
+        <v>61543.83320915244</v>
       </c>
       <c r="M3" t="n">
         <v>149683.3109415065</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20455.4877956126</v>
+        <v>20455.48779561266</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>255024.1601164462</v>
       </c>
       <c r="G4" t="n">
-        <v>310950.7206745581</v>
+        <v>310950.7206745582</v>
       </c>
       <c r="H4" t="n">
         <v>310950.7206745581</v>
@@ -26448,7 +26448,7 @@
         <v>309193.0084127064</v>
       </c>
       <c r="M4" t="n">
-        <v>308176.3362657602</v>
+        <v>308176.3362657601</v>
       </c>
       <c r="N4" t="n">
         <v>308176.3362657601</v>
@@ -26476,34 +26476,34 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>48881.83299975544</v>
+        <v>48881.83299975545</v>
       </c>
       <c r="F5" t="n">
         <v>48881.83299975545</v>
       </c>
       <c r="G5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="H5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="I5" t="n">
-        <v>55349.24364233074</v>
+        <v>55349.24364233075</v>
       </c>
       <c r="J5" t="n">
         <v>64678.11138462555</v>
       </c>
       <c r="K5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462554</v>
       </c>
       <c r="L5" t="n">
-        <v>64678.11138462555</v>
+        <v>64678.11138462553</v>
       </c>
       <c r="M5" t="n">
         <v>57153.73105654695</v>
       </c>
       <c r="N5" t="n">
-        <v>57153.73105654694</v>
+        <v>57153.73105654695</v>
       </c>
       <c r="O5" t="n">
         <v>57153.73105654695</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-243765.8485374816</v>
+        <v>-243770.2171099488</v>
       </c>
       <c r="C6" t="n">
-        <v>-243765.8485374815</v>
+        <v>-243770.2171099487</v>
       </c>
       <c r="D6" t="n">
-        <v>-243765.8485374817</v>
+        <v>-243770.2171099488</v>
       </c>
       <c r="E6" t="n">
-        <v>-504414.6331012314</v>
+        <v>-504660.4762571676</v>
       </c>
       <c r="F6" t="n">
-        <v>-136584.2935862601</v>
+        <v>-136830.1367421962</v>
       </c>
       <c r="G6" t="n">
-        <v>-235937.7824024957</v>
+        <v>-235937.7824024958</v>
       </c>
       <c r="H6" t="n">
-        <v>-174393.9491933432</v>
+        <v>-174393.9491933433</v>
       </c>
       <c r="I6" t="n">
         <v>-174393.9491933433</v>
       </c>
       <c r="J6" t="n">
-        <v>-265512.8463499259</v>
+        <v>-265512.8463499257</v>
       </c>
       <c r="K6" t="n">
-        <v>-181965.1046737866</v>
+        <v>-181965.1046737865</v>
       </c>
       <c r="L6" t="n">
-        <v>-243508.937882939</v>
+        <v>-243508.9378829389</v>
       </c>
       <c r="M6" t="n">
         <v>-323107.3631402681</v>
       </c>
       <c r="N6" t="n">
-        <v>-173424.0521987615</v>
+        <v>-173424.0521987616</v>
       </c>
       <c r="O6" t="n">
-        <v>-193879.5399943742</v>
+        <v>-193879.5399943743</v>
       </c>
       <c r="P6" t="n">
         <v>-173424.0521987616</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G2" t="n">
         <v>165.9269238499924</v>
@@ -26713,10 +26713,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="L2" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M2" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="N2" t="n">
         <v>152.5867559728737</v>
@@ -26747,37 +26747,37 @@
         <v>134.0206915791157</v>
       </c>
       <c r="F3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="G3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="H3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="I3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="J3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="K3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="L3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="M3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="N3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="O3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
       <c r="P3" t="n">
-        <v>134.0206915791157</v>
+        <v>134.0206915791158</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26802,7 @@
         <v>632.8664803414641</v>
       </c>
       <c r="G4" t="n">
-        <v>632.8664803414641</v>
+        <v>632.8664803414642</v>
       </c>
       <c r="H4" t="n">
         <v>632.8664803414641</v>
@@ -26814,19 +26814,19 @@
         <v>874.0042625207867</v>
       </c>
       <c r="K4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="L4" t="n">
-        <v>874.0042625207867</v>
+        <v>874.0042625207866</v>
       </c>
       <c r="M4" t="n">
         <v>680.9911840828735</v>
       </c>
       <c r="N4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="O4" t="n">
-        <v>680.9911840828734</v>
+        <v>680.9911840828735</v>
       </c>
       <c r="P4" t="n">
         <v>680.9911840828735</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F2" t="n">
-        <v>1.106822570104019e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>76.92979151144051</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.56935974451567</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="K2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144051</v>
+        <v>76.92979151144054</v>
       </c>
       <c r="M2" t="n">
-        <v>50.08760471691751</v>
+        <v>50.08760471691745</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451575</v>
+        <v>25.56935974451582</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.8534019035509</v>
+        <v>439.853401903551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K2" t="n">
-        <v>1.106822570104019e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>76.92979151144051</v>
+        <v>76.9297915114406</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.56935974451567</v>
+        <v>25.56935974451574</v>
       </c>
       <c r="P2" t="n">
-        <v>9.647140229519987e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.88797492591271</v>
+        <v>55.8879749259127</v>
       </c>
       <c r="S11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="12">
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-3.765876499528531e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="C13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="D13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="E13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="F13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="G13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="H13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="I13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="J13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="K13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="L13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="M13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="N13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="O13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="P13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="R13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="S13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="T13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="U13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="V13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="W13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="X13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.99713233855174</v>
+        <v>88.99713233855182</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="15">
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-3.836930773104541e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="C16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="D16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="E16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="G16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="H16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="I16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="J16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="K16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="L16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="M16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="N16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="O16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="P16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="R16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="S16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="T16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="U16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="V16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="W16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="X16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.99713233855185</v>
+        <v>88.99713233855179</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S17" t="n">
         <v>165.9269238499924</v>
@@ -28743,7 +28743,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J19" t="n">
-        <v>42.37012655389059</v>
+        <v>23.56807605850135</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,16 +28764,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1599022512687</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>165.9269238499924</v>
       </c>
       <c r="T19" t="n">
-        <v>9.964971103334847</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="U19" t="n">
         <v>165.9269238499924</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S20" t="n">
         <v>165.9269238499924</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.9208195278154</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="C22" t="n">
         <v>165.9269238499924</v>
@@ -28968,16 +28968,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>165.9269238499924</v>
       </c>
       <c r="H22" t="n">
-        <v>155.6301935822177</v>
+        <v>135.1613785963884</v>
       </c>
       <c r="I22" t="n">
-        <v>135.4931377608283</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>42.37012655389059</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R22" t="n">
         <v>137.1599022512687</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S23" t="n">
         <v>165.9269238499924</v>
@@ -29196,7 +29196,7 @@
         <v>165.9269238499924</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9269238499924</v>
+        <v>52.33509765722538</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29217,7 +29217,7 @@
         <v>135.4931377608283</v>
       </c>
       <c r="J25" t="n">
-        <v>42.37012655389059</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.1599022512687</v>
       </c>
       <c r="S25" t="n">
-        <v>147.1248733546035</v>
+        <v>165.9269238499924</v>
       </c>
       <c r="T25" t="n">
         <v>165.9269238499924</v>
@@ -29299,13 +29299,13 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1485704102021259</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L26" t="n">
         <v>102.4991512559563</v>
       </c>
       <c r="M26" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102019554</v>
       </c>
       <c r="N26" t="n">
         <v>102.4991512559563</v>
@@ -29536,7 +29536,7 @@
         <v>102.4991512559563</v>
       </c>
       <c r="K29" t="n">
-        <v>0.1485704102021259</v>
+        <v>102.4991512559563</v>
       </c>
       <c r="L29" t="n">
         <v>102.4991512559563</v>
@@ -29554,10 +29554,10 @@
         <v>102.4991512559563</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4991512559563</v>
+        <v>46.75974674024536</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4991512559563</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S29" t="n">
         <v>102.4991512559563</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1485704102022964</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4991512559563</v>
+        <v>0.1485704102016712</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y32" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="C34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="D34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="E34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="F34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="G34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="H34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="I34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="J34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="K34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="L34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="M34" t="n">
-        <v>102.499151255957</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="N34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559571</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="W34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="X34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
       <c r="Y34" t="n">
-        <v>102.4991512559563</v>
+        <v>102.4991512559562</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="E35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="F35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="G35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I35" t="n">
         <v>150.3178400209649</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="H37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="I37" t="n">
         <v>135.4931377608283</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R37" t="n">
         <v>137.1599022512687</v>
       </c>
       <c r="S37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="T37" t="n">
-        <v>152.5867559728738</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="U37" t="n">
-        <v>133.0699196067457</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="V37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="W37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="X37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.5867559728738</v>
+        <v>152.5867559728737</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S38" t="n">
         <v>152.5867559728737</v>
@@ -30381,7 +30381,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="C40" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R40" t="n">
         <v>137.1599022512687</v>
@@ -30432,7 +30432,7 @@
         <v>152.5867559728737</v>
       </c>
       <c r="T40" t="n">
-        <v>150.9847631111477</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="U40" t="n">
         <v>152.5867559728737</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S41" t="n">
         <v>152.5867559728738</v>
@@ -30621,7 +30621,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>149.9391813787882</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30633,7 +30633,7 @@
         <v>152.5867559728738</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9847631111468</v>
+        <v>152.5867559728738</v>
       </c>
       <c r="I43" t="n">
         <v>135.4931377608283</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.88797492591271</v>
+        <v>55.88797492591269</v>
       </c>
       <c r="S44" t="n">
         <v>152.5867559728737</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>133.0699196067464</v>
+        <v>152.5867559728737</v>
       </c>
       <c r="C46" t="n">
         <v>152.5867559728737</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>152.5867559728737</v>
+        <v>133.0699196067466</v>
       </c>
       <c r="H46" t="n">
         <v>152.5867559728737</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.91484350440138</v>
+        <v>17.91484350440137</v>
       </c>
       <c r="R46" t="n">
         <v>137.1599022512687</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642841</v>
       </c>
       <c r="H11" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350225</v>
       </c>
       <c r="I11" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232708</v>
       </c>
       <c r="J11" t="n">
-        <v>45.72799466095668</v>
+        <v>45.72799466095669</v>
       </c>
       <c r="K11" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701285</v>
       </c>
       <c r="L11" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611583</v>
       </c>
       <c r="M11" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780465</v>
       </c>
       <c r="N11" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337918</v>
       </c>
       <c r="O11" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427433</v>
       </c>
       <c r="P11" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815605</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R11" t="n">
         <v>33.84392871319248</v>
@@ -31789,10 +31789,10 @@
         <v>12.27737290194613</v>
       </c>
       <c r="T11" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514271</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H12" t="n">
         <v>2.784090215634084</v>
       </c>
       <c r="I12" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736405</v>
       </c>
       <c r="J12" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K12" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L12" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588798</v>
       </c>
       <c r="M12" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061808</v>
       </c>
       <c r="N12" t="n">
-        <v>74.97446216933946</v>
+        <v>74.97446216933949</v>
       </c>
       <c r="O12" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483294</v>
       </c>
       <c r="P12" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690134</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R12" t="n">
         <v>17.89808405654682</v>
       </c>
       <c r="S12" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429762</v>
       </c>
       <c r="T12" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U12" t="n">
         <v>0.01896519220459186</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H13" t="n">
         <v>2.148725186301234</v>
       </c>
       <c r="I13" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519918</v>
       </c>
       <c r="J13" t="n">
         <v>17.08653964607841</v>
@@ -31926,19 +31926,19 @@
         <v>35.93072770630916</v>
       </c>
       <c r="M13" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N13" t="n">
-        <v>36.98311969428289</v>
+        <v>36.9831196942829</v>
       </c>
       <c r="O13" t="n">
-        <v>34.15989692905068</v>
+        <v>34.15989692905069</v>
       </c>
       <c r="P13" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735336</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R13" t="n">
         <v>10.86666132049682</v>
@@ -31950,7 +31950,7 @@
         <v>1.032618443314498</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H14" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I14" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J14" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K14" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L14" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M14" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N14" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O14" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P14" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R14" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S14" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T14" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H15" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I15" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J15" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K15" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L15" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M15" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N15" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O15" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P15" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R15" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S15" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T15" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U15" t="n">
         <v>0.01896519220459186</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H16" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I16" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J16" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K16" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L16" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M16" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N16" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O16" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P16" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R16" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S16" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T16" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H17" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I17" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J17" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K17" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L17" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M17" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N17" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O17" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P17" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q17" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R17" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S17" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T17" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H18" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I18" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J18" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K18" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L18" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M18" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N18" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O18" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P18" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q18" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R18" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S18" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T18" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U18" t="n">
         <v>0.01896519220459186</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H19" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I19" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J19" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K19" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L19" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M19" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N19" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O19" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P19" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R19" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S19" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T19" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H20" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I20" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J20" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K20" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L20" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M20" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N20" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O20" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P20" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q20" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R20" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S20" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T20" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H21" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I21" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J21" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K21" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L21" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M21" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N21" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O21" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P21" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q21" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R21" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S21" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T21" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U21" t="n">
         <v>0.01896519220459186</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H22" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I22" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J22" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K22" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L22" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M22" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N22" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O22" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P22" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R22" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S22" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T22" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H23" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I23" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J23" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K23" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L23" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M23" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N23" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O23" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P23" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q23" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R23" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S23" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T23" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H24" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I24" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J24" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K24" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L24" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M24" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N24" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O24" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P24" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R24" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S24" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T24" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U24" t="n">
         <v>0.01896519220459186</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I25" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J25" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K25" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L25" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M25" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N25" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O25" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P25" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R25" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S25" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T25" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H26" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I26" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J26" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K26" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L26" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M26" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N26" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O26" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P26" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R26" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S26" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T26" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H27" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I27" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J27" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K27" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L27" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M27" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N27" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O27" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P27" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R27" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S27" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T27" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U27" t="n">
         <v>0.01896519220459186</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H28" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I28" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J28" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K28" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L28" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M28" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N28" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O28" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P28" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R28" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S28" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T28" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H29" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I29" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J29" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K29" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L29" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M29" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N29" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O29" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P29" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q29" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R29" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S29" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T29" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H30" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I30" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J30" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K30" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L30" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M30" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N30" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O30" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P30" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R30" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S30" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T30" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U30" t="n">
         <v>0.01896519220459186</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H31" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I31" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J31" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K31" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L31" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M31" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N31" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O31" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P31" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R31" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S31" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T31" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H32" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I32" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J32" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K32" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L32" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M32" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N32" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O32" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P32" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q32" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R32" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S32" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T32" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H33" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I33" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J33" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K33" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L33" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M33" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N33" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O33" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P33" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R33" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S33" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T33" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U33" t="n">
         <v>0.01896519220459186</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H34" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I34" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J34" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K34" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L34" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M34" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N34" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O34" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P34" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R34" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S34" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T34" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H35" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I35" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J35" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K35" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L35" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M35" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N35" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O35" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P35" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R35" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S35" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T35" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H36" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I36" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J36" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K36" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L36" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M36" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N36" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O36" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P36" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q36" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R36" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S36" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T36" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U36" t="n">
         <v>0.01896519220459186</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H37" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I37" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J37" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K37" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L37" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M37" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N37" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O37" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P37" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R37" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S37" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T37" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H38" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I38" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J38" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K38" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L38" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M38" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N38" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O38" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P38" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R38" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S38" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T38" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H39" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I39" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J39" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K39" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L39" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M39" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N39" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O39" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P39" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R39" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S39" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T39" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U39" t="n">
         <v>0.01896519220459186</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I40" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J40" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K40" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L40" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M40" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N40" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O40" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P40" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S40" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T40" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H41" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I41" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J41" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K41" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L41" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M41" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N41" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O41" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P41" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q41" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R41" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S41" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T41" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H42" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I42" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J42" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K42" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L42" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M42" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N42" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O42" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P42" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R42" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S42" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T42" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U42" t="n">
         <v>0.01896519220459186</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H43" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I43" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J43" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K43" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L43" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M43" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N43" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O43" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P43" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R43" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S43" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T43" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5387766495642838</v>
+        <v>0.5387766495642842</v>
       </c>
       <c r="H44" t="n">
-        <v>5.517746362350223</v>
+        <v>5.517746362350226</v>
       </c>
       <c r="I44" t="n">
-        <v>20.77118678232707</v>
+        <v>20.77118678232709</v>
       </c>
       <c r="J44" t="n">
-        <v>45.72799466095668</v>
+        <v>45.7279946609567</v>
       </c>
       <c r="K44" t="n">
-        <v>68.53441023701284</v>
+        <v>68.53441023701286</v>
       </c>
       <c r="L44" t="n">
-        <v>85.0229961261158</v>
+        <v>85.02299612611584</v>
       </c>
       <c r="M44" t="n">
-        <v>94.60446536780464</v>
+        <v>94.60446536780468</v>
       </c>
       <c r="N44" t="n">
-        <v>96.13526452337916</v>
+        <v>96.13526452337921</v>
       </c>
       <c r="O44" t="n">
-        <v>90.77780421427431</v>
+        <v>90.77780421427434</v>
       </c>
       <c r="P44" t="n">
-        <v>77.47675567815604</v>
+        <v>77.47675567815607</v>
       </c>
       <c r="Q44" t="n">
-        <v>58.1818169156351</v>
+        <v>58.18181691563512</v>
       </c>
       <c r="R44" t="n">
-        <v>33.84392871319248</v>
+        <v>33.84392871319249</v>
       </c>
       <c r="S44" t="n">
-        <v>12.27737290194613</v>
+        <v>12.27737290194614</v>
       </c>
       <c r="T44" t="n">
-        <v>2.358494783467654</v>
+        <v>2.358494783467655</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0431021319651427</v>
+        <v>0.04310213196514272</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2882709215097961</v>
+        <v>0.2882709215097962</v>
       </c>
       <c r="H45" t="n">
-        <v>2.784090215634084</v>
+        <v>2.784090215634085</v>
       </c>
       <c r="I45" t="n">
-        <v>9.925117253736401</v>
+        <v>9.925117253736406</v>
       </c>
       <c r="J45" t="n">
-        <v>27.23528035194087</v>
+        <v>27.23528035194088</v>
       </c>
       <c r="K45" t="n">
-        <v>46.54943209309721</v>
+        <v>46.54943209309722</v>
       </c>
       <c r="L45" t="n">
-        <v>62.59145600588797</v>
+        <v>62.59145600588799</v>
       </c>
       <c r="M45" t="n">
-        <v>73.04127691061805</v>
+        <v>73.04127691061809</v>
       </c>
       <c r="N45" t="n">
-        <v>74.97446216933946</v>
+        <v>74.9744621693395</v>
       </c>
       <c r="O45" t="n">
-        <v>68.58698543483293</v>
+        <v>68.58698543483295</v>
       </c>
       <c r="P45" t="n">
-        <v>55.04710254690133</v>
+        <v>55.04710254690135</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.79753026149608</v>
+        <v>36.79753026149609</v>
       </c>
       <c r="R45" t="n">
-        <v>17.89808405654682</v>
+        <v>17.89808405654683</v>
       </c>
       <c r="S45" t="n">
-        <v>5.354505932429761</v>
+        <v>5.354505932429764</v>
       </c>
       <c r="T45" t="n">
-        <v>1.161934109067993</v>
+        <v>1.161934109067994</v>
       </c>
       <c r="U45" t="n">
         <v>0.01896519220459186</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2416766569459463</v>
+        <v>0.2416766569459464</v>
       </c>
       <c r="H46" t="n">
-        <v>2.148725186301234</v>
+        <v>2.148725186301235</v>
       </c>
       <c r="I46" t="n">
-        <v>7.267876192519917</v>
+        <v>7.267876192519919</v>
       </c>
       <c r="J46" t="n">
         <v>17.08653964607841</v>
       </c>
       <c r="K46" t="n">
-        <v>28.07843341608358</v>
+        <v>28.07843341608359</v>
       </c>
       <c r="L46" t="n">
-        <v>35.93072770630916</v>
+        <v>35.93072770630917</v>
       </c>
       <c r="M46" t="n">
-        <v>37.88391450653593</v>
+        <v>37.88391450653594</v>
       </c>
       <c r="N46" t="n">
-        <v>36.98311969428289</v>
+        <v>36.98311969428291</v>
       </c>
       <c r="O46" t="n">
-        <v>34.15989692905068</v>
+        <v>34.1598969290507</v>
       </c>
       <c r="P46" t="n">
-        <v>29.22969312735335</v>
+        <v>29.22969312735337</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.23712442844647</v>
+        <v>20.23712442844648</v>
       </c>
       <c r="R46" t="n">
-        <v>10.86666132049682</v>
+        <v>10.86666132049683</v>
       </c>
       <c r="S46" t="n">
-        <v>4.211765012412537</v>
+        <v>4.211765012412538</v>
       </c>
       <c r="T46" t="n">
         <v>1.032618443314498</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01318236310614254</v>
+        <v>0.01318236310614255</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>81.46734621600392</v>
+        <v>118.45379695672</v>
       </c>
       <c r="K11" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L11" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M11" t="n">
-        <v>491.8157444113278</v>
+        <v>301.2613619200906</v>
       </c>
       <c r="N11" t="n">
         <v>478.2881520867284</v>
       </c>
       <c r="O11" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P11" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>432.1084713292371</v>
       </c>
       <c r="M12" t="n">
-        <v>290.9835061375543</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4044077482506</v>
+        <v>319.4139566618268</v>
       </c>
       <c r="O12" t="n">
         <v>464.7485518834702</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.62700578466114</v>
+        <v>46.62700578466124</v>
       </c>
       <c r="K13" t="n">
-        <v>151.0191897391236</v>
+        <v>151.0191897391237</v>
       </c>
       <c r="L13" t="n">
         <v>226.5511725703756</v>
       </c>
       <c r="M13" t="n">
-        <v>246.0664065699379</v>
+        <v>246.066406569938</v>
       </c>
       <c r="N13" t="n">
-        <v>245.598779052633</v>
+        <v>245.5987790526331</v>
       </c>
       <c r="O13" t="n">
-        <v>222.6152580511273</v>
+        <v>222.6152580511275</v>
       </c>
       <c r="P13" t="n">
-        <v>181.8313544842261</v>
+        <v>181.8313544842262</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.08228883415036</v>
+        <v>71.08228883415045</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,16 +35650,16 @@
         <v>311.1004426054803</v>
       </c>
       <c r="L14" t="n">
-        <v>436.4223628785867</v>
+        <v>245.8679803873496</v>
       </c>
       <c r="M14" t="n">
         <v>491.8157444113278</v>
       </c>
       <c r="N14" t="n">
-        <v>287.7337695954913</v>
+        <v>478.2881520867284</v>
       </c>
       <c r="O14" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P14" t="n">
         <v>307.938267249927</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>432.1084713292371</v>
       </c>
       <c r="M15" t="n">
-        <v>290.9835061375543</v>
+        <v>562.9739572239781</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O15" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P15" t="n">
-        <v>360.1944957546763</v>
+        <v>258.4973574656331</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.62700578466126</v>
+        <v>46.62700578466121</v>
       </c>
       <c r="K16" t="n">
         <v>151.0191897391237</v>
       </c>
       <c r="L16" t="n">
-        <v>226.5511725703757</v>
+        <v>226.5511725703756</v>
       </c>
       <c r="M16" t="n">
         <v>246.066406569938</v>
@@ -35817,13 +35817,13 @@
         <v>245.5987790526331</v>
       </c>
       <c r="O16" t="n">
-        <v>222.6152580511275</v>
+        <v>222.6152580511274</v>
       </c>
       <c r="P16" t="n">
         <v>181.8313544842262</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.08228883415048</v>
+        <v>71.08228883415042</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>118.45379695672</v>
+        <v>81.46734621600476</v>
       </c>
       <c r="K17" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L17" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M17" t="n">
         <v>491.8157444113278</v>
@@ -35896,7 +35896,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O17" t="n">
-        <v>361.8767923350067</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P17" t="n">
         <v>307.938267249927</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K18" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L18" t="n">
-        <v>428.7037592530759</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M18" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>464.7485518834702</v>
       </c>
       <c r="P18" t="n">
-        <v>360.1944957546763</v>
+        <v>88.20404466825282</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L19" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M19" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N19" t="n">
         <v>156.6016467140813</v>
@@ -36057,7 +36057,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P19" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,10 +36121,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>238.9998570709631</v>
+        <v>311.1004426054803</v>
       </c>
       <c r="L20" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M20" t="n">
         <v>491.8157444113278</v>
@@ -36133,13 +36133,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O20" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P20" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.567931750521</v>
+        <v>81.46734621600444</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>432.1084713292371</v>
       </c>
       <c r="M21" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O21" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P21" t="n">
-        <v>324.1497031242822</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q21" t="n">
-        <v>196.1628128732074</v>
+        <v>94.46567458416432</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L22" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M22" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N22" t="n">
         <v>156.6016467140813</v>
@@ -36294,7 +36294,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P22" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>238.9998570709631</v>
       </c>
       <c r="L23" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M23" t="n">
         <v>491.8157444113278</v>
@@ -36370,7 +36370,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O23" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P23" t="n">
         <v>307.938267249927</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L24" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O24" t="n">
-        <v>464.7485518834702</v>
+        <v>428.7037592530759</v>
       </c>
       <c r="P24" t="n">
         <v>360.1944957546763</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.46567458416432</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L25" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M25" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N25" t="n">
         <v>156.6016467140813</v>
@@ -36531,7 +36531,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P25" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K26" t="n">
-        <v>311.2490130156824</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L26" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M26" t="n">
-        <v>594.3148956672841</v>
+        <v>491.9643148215298</v>
       </c>
       <c r="N26" t="n">
         <v>580.7873033426847</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K27" t="n">
         <v>278.3580710427827</v>
       </c>
       <c r="L27" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O27" t="n">
         <v>464.7485518834702</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>360.1944957546763</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.20404466825191</v>
+        <v>160.1180202428131</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.1290247020657</v>
+        <v>60.12902470206569</v>
       </c>
       <c r="K28" t="n">
         <v>164.5212086565282</v>
@@ -36771,7 +36771,7 @@
         <v>195.3333734016306</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.58430775155492</v>
+        <v>84.5843077515549</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>220.9529482126763</v>
       </c>
       <c r="K29" t="n">
-        <v>311.2490130156824</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L29" t="n">
         <v>538.921514134543</v>
       </c>
       <c r="M29" t="n">
-        <v>594.3148956672841</v>
+        <v>594.3148956672842</v>
       </c>
       <c r="N29" t="n">
         <v>580.7873033426847</v>
@@ -36850,10 +36850,10 @@
         <v>410.4374185058833</v>
       </c>
       <c r="Q29" t="n">
-        <v>256.0670830064773</v>
+        <v>200.3276784907663</v>
       </c>
       <c r="R29" t="n">
-        <v>46.61117633004357</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K30" t="n">
-        <v>94.46567458416423</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L30" t="n">
-        <v>432.1084713292371</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O30" t="n">
         <v>464.7485518834702</v>
@@ -36929,7 +36929,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>160.1180202428131</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206572</v>
       </c>
       <c r="K31" t="n">
         <v>164.5212086565282</v>
@@ -36996,7 +36996,7 @@
         <v>240.0531914877801</v>
       </c>
       <c r="M31" t="n">
-        <v>259.5684254873424</v>
+        <v>259.5684254873425</v>
       </c>
       <c r="N31" t="n">
         <v>259.1007979700375</v>
@@ -37005,10 +37005,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P31" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016307</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155493</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.9529482126763</v>
+        <v>220.9529482126762</v>
       </c>
       <c r="K32" t="n">
-        <v>413.5995938614365</v>
+        <v>413.5995938614366</v>
       </c>
       <c r="L32" t="n">
         <v>538.921514134543</v>
@@ -37078,19 +37078,19 @@
         <v>594.3148956672841</v>
       </c>
       <c r="N32" t="n">
-        <v>478.4367224969307</v>
+        <v>580.7873033426847</v>
       </c>
       <c r="O32" t="n">
-        <v>501.3623943316791</v>
+        <v>501.362394331679</v>
       </c>
       <c r="P32" t="n">
-        <v>410.4374185058833</v>
+        <v>410.4374185058832</v>
       </c>
       <c r="Q32" t="n">
-        <v>256.0670830064773</v>
+        <v>153.7165021607227</v>
       </c>
       <c r="R32" t="n">
-        <v>46.61117633004357</v>
+        <v>46.61117633004356</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K33" t="n">
-        <v>278.3580710427827</v>
+        <v>6.367619956358277</v>
       </c>
       <c r="L33" t="n">
         <v>432.1084713292371</v>
@@ -37157,7 +37157,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N33" t="n">
-        <v>123.2511437886187</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O33" t="n">
         <v>464.7485518834702</v>
@@ -37166,7 +37166,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q33" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.12902470206568</v>
+        <v>60.12902470206566</v>
       </c>
       <c r="K34" t="n">
-        <v>164.5212086565282</v>
+        <v>164.5212086565281</v>
       </c>
       <c r="L34" t="n">
         <v>240.0531914877801</v>
       </c>
       <c r="M34" t="n">
-        <v>259.5684254873432</v>
+        <v>259.5684254873424</v>
       </c>
       <c r="N34" t="n">
         <v>259.1007979700375</v>
@@ -37242,10 +37242,10 @@
         <v>236.1172769685319</v>
       </c>
       <c r="P34" t="n">
-        <v>195.3333734016306</v>
+        <v>195.3333734016315</v>
       </c>
       <c r="Q34" t="n">
-        <v>84.5843077515549</v>
+        <v>84.58430775155487</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>311.1004426054803</v>
       </c>
       <c r="L35" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M35" t="n">
         <v>491.8157444113278</v>
@@ -37318,7 +37318,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O35" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P35" t="n">
         <v>307.938267249927</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>88.09805462780567</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L36" t="n">
-        <v>242.3132784123877</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>562.9739572239781</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4044077482506</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O36" t="n">
-        <v>464.7485518834702</v>
+        <v>428.703759253075</v>
       </c>
       <c r="P36" t="n">
         <v>360.1944957546763</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L37" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M37" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N37" t="n">
         <v>156.6016467140813</v>
@@ -37479,7 +37479,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P37" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>311.1004426054803</v>
       </c>
       <c r="L38" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M38" t="n">
         <v>491.8157444113278</v>
@@ -37555,7 +37555,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O38" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P38" t="n">
         <v>307.938267249927</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>88.09805462780568</v>
       </c>
       <c r="K39" t="n">
-        <v>94.46567458416392</v>
+        <v>278.3580710427827</v>
       </c>
       <c r="L39" t="n">
         <v>432.1084713292371</v>
@@ -37631,7 +37631,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4044077482506</v>
+        <v>123.2511437886185</v>
       </c>
       <c r="O39" t="n">
         <v>464.7485518834702</v>
@@ -37640,7 +37640,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.1628128732074</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L40" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M40" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N40" t="n">
         <v>156.6016467140813</v>
@@ -37716,7 +37716,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P40" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>118.45379695672</v>
+        <v>118.4537969567198</v>
       </c>
       <c r="K41" t="n">
         <v>311.1004426054803</v>
       </c>
       <c r="L41" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M41" t="n">
         <v>491.8157444113278</v>
@@ -37792,13 +37792,13 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O41" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P41" t="n">
         <v>307.938267249927</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.5679317505211</v>
+        <v>153.567931750521</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>278.3580710427827</v>
+        <v>94.46567458416361</v>
       </c>
       <c r="L42" t="n">
         <v>432.1084713292371</v>
@@ -37868,7 +37868,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N42" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O42" t="n">
         <v>464.7485518834702</v>
@@ -37877,7 +37877,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q42" t="n">
-        <v>196.1628128732074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L43" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M43" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N43" t="n">
         <v>156.6016467140813</v>
@@ -37953,7 +37953,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P43" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>311.1004426054803</v>
       </c>
       <c r="L44" t="n">
-        <v>436.4223628785867</v>
+        <v>436.4223628785868</v>
       </c>
       <c r="M44" t="n">
         <v>491.8157444113278</v>
@@ -38029,7 +38029,7 @@
         <v>478.2881520867284</v>
       </c>
       <c r="O44" t="n">
-        <v>398.8632430757227</v>
+        <v>398.8632430757228</v>
       </c>
       <c r="P44" t="n">
         <v>307.938267249927</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.09805462780567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>278.3580710427827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>432.1084713292371</v>
@@ -38105,7 +38105,7 @@
         <v>562.9739572239781</v>
       </c>
       <c r="N45" t="n">
-        <v>123.2511437886185</v>
+        <v>591.4044077482507</v>
       </c>
       <c r="O45" t="n">
         <v>464.7485518834702</v>
@@ -38114,7 +38114,7 @@
         <v>360.1944957546763</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.1628128732074</v>
+        <v>94.46567458416341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>62.02205740057188</v>
+        <v>62.02205740057189</v>
       </c>
       <c r="L46" t="n">
         <v>137.5540402318238</v>
       </c>
       <c r="M46" t="n">
-        <v>157.0692742313861</v>
+        <v>157.0692742313862</v>
       </c>
       <c r="N46" t="n">
         <v>156.6016467140813</v>
@@ -38190,7 +38190,7 @@
         <v>133.6181257125756</v>
       </c>
       <c r="P46" t="n">
-        <v>92.83422214567436</v>
+        <v>92.83422214567437</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
